--- a/tables/2021AP.xlsx
+++ b/tables/2021AP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eanma\Google Drive\Data Projects\top25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eanma\Google Drive\Data Projects\top25\top25_project\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596C0663-1EB4-4970-B836-C16347E80933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9866B3E6-4B7F-4A16-B092-849DF3609D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="57">
   <si>
     <t>Team</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
   </si>
 </sst>
 </file>
@@ -547,11 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48743F2A-DB94-4EE1-849C-517D3A883C44}">
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="Q121" sqref="Q121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3862,7 +3871,7 @@
         <v>17</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O101" si="4">C67-N67</f>
+        <f t="shared" ref="O67:O130" si="4">C67-N67</f>
         <v>-1</v>
       </c>
     </row>
@@ -3988,7 +3997,7 @@
         <v>27</v>
       </c>
       <c r="M70">
-        <f t="shared" ref="M70:M101" si="6">K70-L70</f>
+        <f t="shared" ref="M70:M126" si="6">K70-L70</f>
         <v>-10</v>
       </c>
       <c r="N70">
@@ -5053,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <f t="shared" ref="F92:F126" si="8">D92/(D92+E92)</f>
+        <f t="shared" ref="F92:F151" si="8">D92/(D92+E92)</f>
         <v>1</v>
       </c>
       <c r="G92">
@@ -5565,6 +5574,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G102">
+        <v>12</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>31</v>
+      </c>
+      <c r="K102">
+        <v>42</v>
+      </c>
+      <c r="L102">
+        <v>21</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
@@ -5586,6 +5624,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G103">
+        <v>8</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>31</v>
+      </c>
+      <c r="K103">
+        <v>37</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
@@ -5607,6 +5674,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G104">
+        <v>26</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104">
+        <v>24</v>
+      </c>
+      <c r="L104">
+        <v>31</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="N104">
+        <v>8</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
@@ -5629,6 +5725,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G105">
+        <v>26</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>31</v>
+      </c>
+      <c r="K105">
+        <v>24</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
@@ -5651,6 +5776,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G106">
+        <v>26</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106">
+        <v>51</v>
+      </c>
+      <c r="L106">
+        <v>14</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
@@ -5673,6 +5827,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G107">
+        <v>26</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107">
+        <v>37</v>
+      </c>
+      <c r="L107">
+        <v>31</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="N107">
+        <v>6</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -5695,6 +5878,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G108">
+        <v>9</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108">
+        <v>24</v>
+      </c>
+      <c r="L108">
+        <v>13</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="N108">
+        <v>5</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -5717,6 +5929,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>32</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>37</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="6"/>
+        <v>-37</v>
+      </c>
+      <c r="N109">
+        <v>13</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
@@ -5739,6 +5980,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G110">
+        <v>7</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>32</v>
+      </c>
+      <c r="K110">
+        <v>13</v>
+      </c>
+      <c r="L110">
+        <v>24</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="6"/>
+        <v>-11</v>
+      </c>
+      <c r="N110">
+        <v>14</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
@@ -5761,6 +6031,35 @@
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
+      <c r="G111">
+        <v>26</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>32</v>
+      </c>
+      <c r="K111">
+        <v>13</v>
+      </c>
+      <c r="L111">
+        <v>20</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="N111">
+        <v>20</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -5783,6 +6082,35 @@
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
+      <c r="G112">
+        <v>26</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112">
+        <v>52</v>
+      </c>
+      <c r="L112">
+        <v>13</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="N112">
+        <v>7</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
@@ -5805,6 +6133,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>32</v>
+      </c>
+      <c r="K113">
+        <v>21</v>
+      </c>
+      <c r="L113">
+        <v>42</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="6"/>
+        <v>-21</v>
+      </c>
+      <c r="N113">
+        <v>17</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
@@ -5827,6 +6184,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G114">
+        <v>26</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114">
+        <v>34</v>
+      </c>
+      <c r="L114">
+        <v>20</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="N114">
+        <v>10</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
@@ -5849,6 +6235,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G115">
+        <v>26</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>31</v>
+      </c>
+      <c r="K115">
+        <v>38</v>
+      </c>
+      <c r="L115">
+        <v>17</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="N115">
+        <v>9</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
@@ -5871,6 +6286,35 @@
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
+      <c r="G116">
+        <v>26</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>32</v>
+      </c>
+      <c r="K116">
+        <v>22</v>
+      </c>
+      <c r="L116">
+        <v>26</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="N116">
+        <v>26</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="4"/>
+        <v>-11</v>
+      </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
@@ -5893,6 +6337,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G117">
+        <v>26</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>31</v>
+      </c>
+      <c r="K117">
+        <v>59</v>
+      </c>
+      <c r="L117">
+        <v>6</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="N117">
+        <v>15</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
@@ -5915,6 +6388,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G118">
+        <v>26</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118">
+        <v>48</v>
+      </c>
+      <c r="L118">
+        <v>31</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="N118">
+        <v>11</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
@@ -5937,6 +6439,35 @@
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
+      <c r="G119">
+        <v>26</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>32</v>
+      </c>
+      <c r="K119">
+        <v>24</v>
+      </c>
+      <c r="L119">
+        <v>27</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="N119">
+        <v>26</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
@@ -5959,6 +6490,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G120">
+        <v>21</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120">
+        <v>17</v>
+      </c>
+      <c r="L120">
+        <v>14</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>12</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
@@ -5981,6 +6541,35 @@
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
+      <c r="G121">
+        <v>26</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>32</v>
+      </c>
+      <c r="K121">
+        <v>23</v>
+      </c>
+      <c r="L121">
+        <v>42</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="6"/>
+        <v>-19</v>
+      </c>
+      <c r="N121">
+        <v>26</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
@@ -6003,6 +6592,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G122">
+        <v>19</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>32</v>
+      </c>
+      <c r="K122">
+        <v>14</v>
+      </c>
+      <c r="L122">
+        <v>17</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="N122">
+        <v>26</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
@@ -6025,6 +6643,35 @@
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
+      <c r="G123">
+        <v>26</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123">
+        <v>24</v>
+      </c>
+      <c r="L123">
+        <v>19</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="N123">
+        <v>18</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
@@ -6047,6 +6694,35 @@
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
+      <c r="G124">
+        <v>26</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>31</v>
+      </c>
+      <c r="K124">
+        <v>34</v>
+      </c>
+      <c r="L124">
+        <v>27</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="N124">
+        <v>23</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
@@ -6069,6 +6745,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G125">
+        <v>26</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>31</v>
+      </c>
+      <c r="K125">
+        <v>37</v>
+      </c>
+      <c r="L125">
+        <v>34</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="N125">
+        <v>19</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
@@ -6091,51 +6796,629 @@
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
+      <c r="G126">
+        <v>26</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>31</v>
+      </c>
+      <c r="K126">
+        <v>19</v>
+      </c>
+      <c r="L126">
+        <v>13</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="N126">
+        <v>26</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <f>C127+1</f>
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>35</v>
+      </c>
+      <c r="B129">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ref="C129:C151" si="10">C128+1</f>
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>44</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>47</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>50</v>
+      </c>
+      <c r="B138">
+        <v>6</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>42</v>
+      </c>
+      <c r="B139">
+        <v>6</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141">
+        <v>6</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>54</v>
+      </c>
+      <c r="B142">
+        <v>6</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>38</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>24</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>52</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>55</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>56</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="C127" t="s">
-        <v>26</v>
-      </c>
-      <c r="D127" t="s">
-        <v>31</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" t="s">
+        <v>31</v>
+      </c>
+      <c r="E152" t="s">
         <v>32</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F152" t="s">
         <v>33</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G152" t="s">
         <v>34</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H152" t="s">
         <v>46</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I152" t="s">
         <v>45</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J152" t="s">
         <v>27</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K152" t="s">
         <v>28</v>
       </c>
-      <c r="L127" t="s">
+      <c r="L152" t="s">
         <v>29</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M152" t="s">
         <v>30</v>
       </c>
-      <c r="N127" t="s">
+      <c r="N152" t="s">
         <v>40</v>
       </c>
-      <c r="O127" t="s">
+      <c r="O152" t="s">
         <v>41</v>
       </c>
     </row>

--- a/tables/2021AP.xlsx
+++ b/tables/2021AP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eanma\Google Drive\Data Projects\top25\top25_project\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9866B3E6-4B7F-4A16-B092-849DF3609D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073A08AF-6683-45A8-90AD-C11E623E5DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
+    <workbookView xWindow="-15930" yWindow="3160" windowWidth="22530" windowHeight="7450" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="57">
   <si>
     <t>Team</t>
   </si>
@@ -556,11 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48743F2A-DB94-4EE1-849C-517D3A883C44}">
-  <dimension ref="A1:O152"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q121" sqref="Q121"/>
+      <selection pane="topRight" activeCell="F152" sqref="F152:F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3997,7 +3997,7 @@
         <v>27</v>
       </c>
       <c r="M70">
-        <f t="shared" ref="M70:M126" si="6">K70-L70</f>
+        <f t="shared" ref="M70:M133" si="6">K70-L70</f>
         <v>-10</v>
       </c>
       <c r="N70">
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <f t="shared" ref="F92:F151" si="8">D92/(D92+E92)</f>
+        <f t="shared" ref="F92:F155" si="8">D92/(D92+E92)</f>
         <v>1</v>
       </c>
       <c r="G92">
@@ -6846,6 +6846,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G127">
+        <v>26</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>32</v>
+      </c>
+      <c r="K127">
+        <v>38</v>
+      </c>
+      <c r="L127">
+        <v>41</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
@@ -6868,8 +6897,37 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G128">
+        <v>18</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>31</v>
+      </c>
+      <c r="K128">
+        <v>34</v>
+      </c>
+      <c r="L128">
+        <v>10</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>35</v>
       </c>
@@ -6890,8 +6948,37 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G129">
+        <v>4</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>31</v>
+      </c>
+      <c r="K129">
+        <v>23</v>
+      </c>
+      <c r="L129">
+        <v>20</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -6912,8 +6999,37 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>32</v>
+      </c>
+      <c r="K130">
+        <v>20</v>
+      </c>
+      <c r="L130">
+        <v>23</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="N130">
+        <v>7</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -6934,8 +7050,37 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G131">
+        <v>26</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>31</v>
+      </c>
+      <c r="K131">
+        <v>52</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131">
+        <f t="shared" ref="O131:O151" si="11">C131-N131</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -6956,8 +7101,37 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G132">
+        <v>21</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>31</v>
+      </c>
+      <c r="K132">
+        <v>55</v>
+      </c>
+      <c r="L132">
+        <v>48</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -6978,8 +7152,37 @@
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G133">
+        <v>26</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133">
+        <v>66</v>
+      </c>
+      <c r="L133">
+        <v>17</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="N133">
+        <v>6</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -7000,8 +7203,15 @@
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N134">
+        <v>9</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>44</v>
       </c>
@@ -7022,8 +7232,37 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G135">
+        <v>26</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135">
+        <v>32</v>
+      </c>
+      <c r="L135">
+        <v>29</v>
+      </c>
+      <c r="M135">
+        <f t="shared" ref="M135:M151" si="12">K135-L135</f>
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>8</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>43</v>
       </c>
@@ -7044,8 +7283,37 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G136">
+        <v>26</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>32</v>
+      </c>
+      <c r="K136">
+        <v>17</v>
+      </c>
+      <c r="L136">
+        <v>26</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="12"/>
+        <v>-9</v>
+      </c>
+      <c r="N136">
+        <v>19</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>47</v>
       </c>
@@ -7066,8 +7334,37 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G137">
+        <v>26</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137">
+        <v>31</v>
+      </c>
+      <c r="L137">
+        <v>13</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="N137">
+        <v>10</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>50</v>
       </c>
@@ -7088,8 +7385,15 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N138">
+        <v>12</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>42</v>
       </c>
@@ -7110,8 +7414,37 @@
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G139">
+        <v>17</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>32</v>
+      </c>
+      <c r="K139">
+        <v>51</v>
+      </c>
+      <c r="L139">
+        <v>52</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="N139">
+        <v>17</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -7132,8 +7465,37 @@
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G140">
+        <v>26</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>31</v>
+      </c>
+      <c r="K140">
+        <v>32</v>
+      </c>
+      <c r="L140">
+        <v>29</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="N140">
+        <v>14</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>21</v>
       </c>
@@ -7154,8 +7516,37 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G141">
+        <v>26</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>31</v>
+      </c>
+      <c r="K141">
+        <v>52</v>
+      </c>
+      <c r="L141">
+        <v>20</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="N141">
+        <v>15</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>54</v>
       </c>
@@ -7176,8 +7567,37 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G142">
+        <v>26</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>31</v>
+      </c>
+      <c r="K142">
+        <v>42</v>
+      </c>
+      <c r="L142">
+        <v>21</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="N142">
+        <v>11</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -7198,8 +7618,37 @@
         <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G143">
+        <v>13</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>31</v>
+      </c>
+      <c r="K143">
+        <v>52</v>
+      </c>
+      <c r="L143">
+        <v>51</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>13</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>39</v>
       </c>
@@ -7220,6 +7669,35 @@
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
+      <c r="G144">
+        <v>2</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>32</v>
+      </c>
+      <c r="K144">
+        <v>10</v>
+      </c>
+      <c r="L144">
+        <v>34</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="12"/>
+        <v>-24</v>
+      </c>
+      <c r="N144">
+        <v>26</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
@@ -7242,6 +7720,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G145">
+        <v>26</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>31</v>
+      </c>
+      <c r="K145">
+        <v>40</v>
+      </c>
+      <c r="L145">
+        <v>37</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>16</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
@@ -7264,6 +7771,35 @@
         <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
+      <c r="G146">
+        <v>26</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>31</v>
+      </c>
+      <c r="K146">
+        <v>42</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="N146">
+        <v>20</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
@@ -7286,6 +7822,35 @@
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
+      <c r="G147">
+        <v>6</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>32</v>
+      </c>
+      <c r="K147">
+        <v>48</v>
+      </c>
+      <c r="L147">
+        <v>55</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="12"/>
+        <v>-7</v>
+      </c>
+      <c r="N147">
+        <v>25</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
@@ -7308,6 +7873,35 @@
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
+      <c r="G148">
+        <v>26</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>31</v>
+      </c>
+      <c r="K148">
+        <v>28</v>
+      </c>
+      <c r="L148">
+        <v>18</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="N148">
+        <v>18</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
@@ -7330,6 +7924,13 @@
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
+      <c r="N149">
+        <v>22</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
@@ -7352,6 +7953,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G150">
+        <v>26</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150">
+        <v>31</v>
+      </c>
+      <c r="L150">
+        <v>24</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="N150">
+        <v>23</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
@@ -7374,51 +8004,629 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G151">
+        <v>26</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>31</v>
+      </c>
+      <c r="K151">
+        <v>31</v>
+      </c>
+      <c r="L151">
+        <v>7</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="N151">
+        <v>24</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>35</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <f>C152+1</f>
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>6</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <f t="shared" ref="C154:C176" si="13">C153+1</f>
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>5</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>6</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <f t="shared" ref="F156:F176" si="14">D156/(D156+E156)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157">
+        <v>7</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>44</v>
+      </c>
+      <c r="B159">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>6</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="D160">
+        <v>4</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>47</v>
+      </c>
+      <c r="B161">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>6</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="D162">
+        <v>6</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>50</v>
+      </c>
+      <c r="B163">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>38</v>
+      </c>
+      <c r="B164">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="D166">
+        <v>6</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>53</v>
+      </c>
+      <c r="B167">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="D167">
+        <v>6</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>42</v>
+      </c>
+      <c r="B168">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>43</v>
+      </c>
+      <c r="B170">
+        <v>7</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="D172">
+        <v>4</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>52</v>
+      </c>
+      <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="D173">
+        <v>4</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>55</v>
+      </c>
+      <c r="B174">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="D174">
+        <v>6</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>56</v>
+      </c>
+      <c r="B175">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176">
+        <v>7</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
-      <c r="C152" t="s">
-        <v>26</v>
-      </c>
-      <c r="D152" t="s">
-        <v>31</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="D176">
+        <v>4</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" t="s">
+        <v>31</v>
+      </c>
+      <c r="E177" t="s">
         <v>32</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F177" t="s">
         <v>33</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G177" t="s">
         <v>34</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H177" t="s">
         <v>46</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I177" t="s">
         <v>45</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J177" t="s">
         <v>27</v>
       </c>
-      <c r="K152" t="s">
+      <c r="K177" t="s">
         <v>28</v>
       </c>
-      <c r="L152" t="s">
+      <c r="L177" t="s">
         <v>29</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M177" t="s">
         <v>30</v>
       </c>
-      <c r="N152" t="s">
+      <c r="N177" t="s">
         <v>40</v>
       </c>
-      <c r="O152" t="s">
+      <c r="O177" t="s">
         <v>41</v>
       </c>
     </row>

--- a/tables/2021AP.xlsx
+++ b/tables/2021AP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eanma\Google Drive\Data Projects\top25\top25_project\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073A08AF-6683-45A8-90AD-C11E623E5DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A061E08D-C3DB-457F-A314-902F556F3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15930" yWindow="3160" windowWidth="22530" windowHeight="7450" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="61">
   <si>
     <t>Team</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>San Diego State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L </t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Purdue</t>
   </si>
 </sst>
 </file>
@@ -556,11 +568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48743F2A-DB94-4EE1-849C-517D3A883C44}">
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:O202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F152" sqref="F152:F176"/>
+      <selection pane="topRight" activeCell="S187" sqref="S187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7076,7 +7088,7 @@
         <v>3</v>
       </c>
       <c r="O131">
-        <f t="shared" ref="O131:O151" si="11">C131-N131</f>
+        <f t="shared" ref="O131:O194" si="11">C131-N131</f>
         <v>2</v>
       </c>
     </row>
@@ -7251,7 +7263,7 @@
         <v>29</v>
       </c>
       <c r="M135">
-        <f t="shared" ref="M135:M151" si="12">K135-L135</f>
+        <f t="shared" ref="M135:M176" si="12">K135-L135</f>
         <v>3</v>
       </c>
       <c r="N135">
@@ -8054,6 +8066,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G152">
+        <v>11</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>31</v>
+      </c>
+      <c r="K152">
+        <v>30</v>
+      </c>
+      <c r="L152">
+        <v>13</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
@@ -8076,6 +8117,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G153">
+        <v>26</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>32</v>
+      </c>
+      <c r="K153">
+        <v>7</v>
+      </c>
+      <c r="L153">
+        <v>24</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="12"/>
+        <v>-17</v>
+      </c>
+      <c r="N153">
+        <v>11</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
@@ -8098,6 +8168,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G154">
+        <v>26</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>31</v>
+      </c>
+      <c r="K154">
+        <v>56</v>
+      </c>
+      <c r="L154">
+        <v>21</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
@@ -8120,6 +8219,35 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="G155">
+        <v>26</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>31</v>
+      </c>
+      <c r="K155">
+        <v>52</v>
+      </c>
+      <c r="L155">
+        <v>31</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
@@ -8139,8 +8267,37 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <f t="shared" ref="F156:F176" si="14">D156/(D156+E156)</f>
+        <f t="shared" ref="F156:F201" si="14">D156/(D156+E156)</f>
         <v>0.83333333333333337</v>
+      </c>
+      <c r="G156">
+        <v>26</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>31</v>
+      </c>
+      <c r="K156">
+        <v>49</v>
+      </c>
+      <c r="L156">
+        <v>9</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.35">
@@ -8164,6 +8321,13 @@
         <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
+      <c r="N157">
+        <v>5</v>
+      </c>
+      <c r="O157">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
@@ -8186,6 +8350,13 @@
         <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
+      <c r="N158">
+        <v>7</v>
+      </c>
+      <c r="O158">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
@@ -8208,6 +8379,13 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
+      <c r="N159">
+        <v>6</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
@@ -8230,8 +8408,37 @@
         <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G160">
+        <v>26</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>31</v>
+      </c>
+      <c r="K160">
+        <v>24</v>
+      </c>
+      <c r="L160">
+        <v>17</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="N160">
+        <v>10</v>
+      </c>
+      <c r="O160">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>47</v>
       </c>
@@ -8252,8 +8459,37 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G161">
+        <v>26</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161" t="s">
+        <v>31</v>
+      </c>
+      <c r="K161">
+        <v>20</v>
+      </c>
+      <c r="L161">
+        <v>15</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="N161">
+        <v>9</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>54</v>
       </c>
@@ -8274,8 +8510,37 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162" t="s">
+        <v>32</v>
+      </c>
+      <c r="K162">
+        <v>13</v>
+      </c>
+      <c r="L162">
+        <v>30</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="12"/>
+        <v>-17</v>
+      </c>
+      <c r="N162">
+        <v>15</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>50</v>
       </c>
@@ -8296,8 +8561,37 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G163">
+        <v>25</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" t="s">
+        <v>31</v>
+      </c>
+      <c r="K163">
+        <v>32</v>
+      </c>
+      <c r="L163">
+        <v>24</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="N163">
+        <v>8</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>38</v>
       </c>
@@ -8318,8 +8612,37 @@
         <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G164">
+        <v>26</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164" t="s">
+        <v>31</v>
+      </c>
+      <c r="K164">
+        <v>31</v>
+      </c>
+      <c r="L164">
+        <v>26</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="N164">
+        <v>12</v>
+      </c>
+      <c r="O164">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -8340,8 +8663,15 @@
         <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N165">
+        <v>13</v>
+      </c>
+      <c r="O165">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -8362,8 +8692,15 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N166">
+        <v>14</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>53</v>
       </c>
@@ -8384,8 +8721,15 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N167">
+        <v>16</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>42</v>
       </c>
@@ -8406,8 +8750,37 @@
         <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G168">
+        <v>26</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" t="s">
+        <v>32</v>
+      </c>
+      <c r="K168">
+        <v>23</v>
+      </c>
+      <c r="L168">
+        <v>38</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="12"/>
+        <v>-15</v>
+      </c>
+      <c r="N168">
+        <v>26</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>24</v>
       </c>
@@ -8428,8 +8801,37 @@
         <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G169">
+        <v>26</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>57</v>
+      </c>
+      <c r="K169">
+        <v>21</v>
+      </c>
+      <c r="L169">
+        <v>35</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="12"/>
+        <v>-14</v>
+      </c>
+      <c r="N169">
+        <v>26</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>43</v>
       </c>
@@ -8450,8 +8852,37 @@
         <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G170">
+        <v>26</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>32</v>
+      </c>
+      <c r="K170">
+        <v>24</v>
+      </c>
+      <c r="L170">
+        <v>38</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="12"/>
+        <v>-14</v>
+      </c>
+      <c r="N170">
+        <v>26</v>
+      </c>
+      <c r="O170">
+        <f t="shared" si="11"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -8472,8 +8903,37 @@
         <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G171">
+        <v>26</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171" t="s">
+        <v>32</v>
+      </c>
+      <c r="K171">
+        <v>49</v>
+      </c>
+      <c r="L171">
+        <v>42</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="N171">
+        <v>26</v>
+      </c>
+      <c r="O171">
+        <f t="shared" si="11"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -8494,8 +8954,37 @@
         <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G172">
+        <v>26</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172" t="s">
+        <v>31</v>
+      </c>
+      <c r="K172">
+        <v>35</v>
+      </c>
+      <c r="L172">
+        <v>14</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="N172">
+        <v>17</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>52</v>
       </c>
@@ -8516,8 +9005,37 @@
         <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G173">
+        <v>26</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173" t="s">
+        <v>31</v>
+      </c>
+      <c r="K173">
+        <v>33</v>
+      </c>
+      <c r="L173">
+        <v>7</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="N173">
+        <v>18</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>55</v>
       </c>
@@ -8538,8 +9056,15 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N174">
+        <v>21</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>56</v>
       </c>
@@ -8560,8 +9085,37 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G175">
+        <v>26</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175" t="s">
+        <v>31</v>
+      </c>
+      <c r="K175">
+        <v>19</v>
+      </c>
+      <c r="L175">
+        <v>13</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="N175">
+        <v>22</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -8582,51 +9136,629 @@
         <f t="shared" si="14"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G176">
+        <v>12</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" t="s">
+        <v>32</v>
+      </c>
+      <c r="K176">
+        <v>24</v>
+      </c>
+      <c r="L176">
+        <v>32</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="12"/>
+        <v>-8</v>
+      </c>
+      <c r="N176">
+        <v>26</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177">
+        <v>8</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>7</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178">
+        <v>8</v>
+      </c>
+      <c r="C178">
+        <f>C177+1</f>
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>6</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179">
+        <v>8</v>
+      </c>
+      <c r="C179">
+        <f t="shared" ref="C179:C201" si="15">C178+1</f>
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>7</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>8</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="D180">
+        <v>6</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="14"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <v>8</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>44</v>
+      </c>
+      <c r="B182">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183">
+        <v>8</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184">
+        <v>8</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="D184">
+        <v>6</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>47</v>
+      </c>
+      <c r="B185">
+        <v>8</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="D185">
+        <v>7</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186">
+        <v>8</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="D186">
+        <v>5</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>35</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="D187">
+        <v>6</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="14"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>38</v>
+      </c>
+      <c r="B188">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="D188">
+        <v>5</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189">
+        <v>8</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190">
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="D190">
+        <v>6</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>54</v>
+      </c>
+      <c r="B191">
+        <v>8</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="14"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>53</v>
+      </c>
+      <c r="B192">
+        <v>8</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="D192">
+        <v>6</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193">
+        <v>8</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="14"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>52</v>
+      </c>
+      <c r="B194">
+        <v>8</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>39</v>
+      </c>
+      <c r="B195">
+        <v>8</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="D195">
+        <v>5</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="14"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>51</v>
+      </c>
+      <c r="B196">
+        <v>8</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="D196">
+        <v>6</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="14"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>55</v>
+      </c>
+      <c r="B197">
+        <v>8</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="D197">
+        <v>6</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>56</v>
+      </c>
+      <c r="B198">
+        <v>8</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="D198">
+        <v>6</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>58</v>
+      </c>
+      <c r="B199">
+        <v>8</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="D199">
+        <v>5</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>59</v>
+      </c>
+      <c r="B200">
+        <v>8</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>60</v>
+      </c>
+      <c r="B201">
+        <v>8</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
-      <c r="C177" t="s">
-        <v>26</v>
-      </c>
-      <c r="D177" t="s">
-        <v>31</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="D201">
+        <v>4</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202" t="s">
+        <v>26</v>
+      </c>
+      <c r="D202" t="s">
+        <v>31</v>
+      </c>
+      <c r="E202" t="s">
         <v>32</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F202" t="s">
         <v>33</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G202" t="s">
         <v>34</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H202" t="s">
         <v>46</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I202" t="s">
         <v>45</v>
       </c>
-      <c r="J177" t="s">
+      <c r="J202" t="s">
         <v>27</v>
       </c>
-      <c r="K177" t="s">
+      <c r="K202" t="s">
         <v>28</v>
       </c>
-      <c r="L177" t="s">
+      <c r="L202" t="s">
         <v>29</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M202" t="s">
         <v>30</v>
       </c>
-      <c r="N177" t="s">
+      <c r="N202" t="s">
         <v>40</v>
       </c>
-      <c r="O177" t="s">
+      <c r="O202" t="s">
         <v>41</v>
       </c>
     </row>

--- a/tables/2021AP.xlsx
+++ b/tables/2021AP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eanma\Google Drive\Data Projects\top25\top25_project\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A061E08D-C3DB-457F-A314-902F556F3661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6E779D-D2FD-465E-A894-DBD66B225BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
+    <workbookView xWindow="720" yWindow="6620" windowWidth="22530" windowHeight="7450" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="62">
   <si>
     <t>Team</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Purdue</t>
+  </si>
+  <si>
+    <t>Houston</t>
   </si>
 </sst>
 </file>
@@ -568,11 +571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48743F2A-DB94-4EE1-849C-517D3A883C44}">
-  <dimension ref="A1:O202"/>
+  <dimension ref="A1:O252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S187" sqref="S187"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7263,7 +7266,7 @@
         <v>29</v>
       </c>
       <c r="M135">
-        <f t="shared" ref="M135:M176" si="12">K135-L135</f>
+        <f t="shared" ref="M135:M198" si="12">K135-L135</f>
         <v>3</v>
       </c>
       <c r="N135">
@@ -8267,7 +8270,7 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <f t="shared" ref="F156:F201" si="14">D156/(D156+E156)</f>
+        <f t="shared" ref="F156:F219" si="14">D156/(D156+E156)</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="G156">
@@ -9166,7 +9169,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -9186,8 +9189,15 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -9208,8 +9218,37 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G178">
+        <v>26</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>31</v>
+      </c>
+      <c r="K178">
+        <v>27</v>
+      </c>
+      <c r="L178">
+        <v>20</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -9230,8 +9269,37 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G179">
+        <v>26</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179" t="s">
+        <v>31</v>
+      </c>
+      <c r="K179">
+        <v>35</v>
+      </c>
+      <c r="L179">
+        <v>23</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -9252,8 +9320,37 @@
         <f t="shared" si="14"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G180">
+        <v>26</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>31</v>
+      </c>
+      <c r="K180">
+        <v>52</v>
+      </c>
+      <c r="L180">
+        <v>24</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="N180">
+        <v>3</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -9265,17 +9362,46 @@
         <v>5</v>
       </c>
       <c r="D181">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181">
         <f t="shared" si="14"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G181">
+        <v>26</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181" t="s">
+        <v>31</v>
+      </c>
+      <c r="K181">
+        <v>54</v>
+      </c>
+      <c r="L181">
+        <v>7</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="12"/>
+        <v>47</v>
+      </c>
+      <c r="N181">
+        <v>5</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>44</v>
       </c>
@@ -9296,8 +9422,37 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G182">
+        <v>26</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182" t="s">
+        <v>31</v>
+      </c>
+      <c r="K182">
+        <v>33</v>
+      </c>
+      <c r="L182">
+        <v>7</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="N182">
+        <v>6</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>18</v>
       </c>
@@ -9318,8 +9473,37 @@
         <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G183">
+        <v>26</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>32</v>
+      </c>
+      <c r="K183">
+        <v>18</v>
+      </c>
+      <c r="L183">
+        <v>20</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="N183">
+        <v>20</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="11"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>50</v>
       </c>
@@ -9340,8 +9524,37 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G184">
+        <v>26</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>32</v>
+      </c>
+      <c r="K184">
+        <v>21</v>
+      </c>
+      <c r="L184">
+        <v>24</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="12"/>
+        <v>-3</v>
+      </c>
+      <c r="N184">
+        <v>15</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="11"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>47</v>
       </c>
@@ -9362,8 +9575,15 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N185">
+        <v>8</v>
+      </c>
+      <c r="O185">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -9384,8 +9604,37 @@
         <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G186">
+        <v>26</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186" t="s">
+        <v>31</v>
+      </c>
+      <c r="K186">
+        <v>34</v>
+      </c>
+      <c r="L186">
+        <v>31</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="N186">
+        <v>7</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>35</v>
       </c>
@@ -9406,8 +9655,19 @@
         <f t="shared" si="14"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="M187">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>9</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>38</v>
       </c>
@@ -9428,8 +9688,37 @@
         <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G188">
+        <v>26</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>31</v>
+      </c>
+      <c r="K188">
+        <v>31</v>
+      </c>
+      <c r="L188">
+        <v>17</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="N188">
+        <v>10</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -9450,8 +9739,37 @@
         <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G189">
+        <v>26</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>31</v>
+      </c>
+      <c r="K189">
+        <v>31</v>
+      </c>
+      <c r="L189">
+        <v>16</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="N189">
+        <v>11</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -9472,8 +9790,37 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G190">
+        <v>26</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>32</v>
+      </c>
+      <c r="K190">
+        <v>27</v>
+      </c>
+      <c r="L190">
+        <v>30</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="12"/>
+        <v>-3</v>
+      </c>
+      <c r="N190">
+        <v>24</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>54</v>
       </c>
@@ -9494,8 +9841,19 @@
         <f t="shared" si="14"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="M191">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>12</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>53</v>
       </c>
@@ -9516,6 +9874,35 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
+      <c r="G192">
+        <v>26</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>31</v>
+      </c>
+      <c r="K192">
+        <v>70</v>
+      </c>
+      <c r="L192">
+        <v>56</v>
+      </c>
+      <c r="M192">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="N192">
+        <v>13</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
@@ -9538,6 +9925,35 @@
         <f t="shared" si="14"/>
         <v>0.7142857142857143</v>
       </c>
+      <c r="G193">
+        <v>26</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193" t="s">
+        <v>31</v>
+      </c>
+      <c r="K193">
+        <v>44</v>
+      </c>
+      <c r="L193">
+        <v>14</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="N193">
+        <v>14</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
@@ -9560,6 +9976,35 @@
         <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
+      <c r="G194">
+        <v>26</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194" t="s">
+        <v>32</v>
+      </c>
+      <c r="K194">
+        <v>30</v>
+      </c>
+      <c r="L194">
+        <v>31</v>
+      </c>
+      <c r="M194">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="N194">
+        <v>26</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="11"/>
+        <v>-8</v>
+      </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
@@ -9582,6 +10027,13 @@
         <f t="shared" si="14"/>
         <v>0.7142857142857143</v>
       </c>
+      <c r="N195">
+        <v>18</v>
+      </c>
+      <c r="O195">
+        <f t="shared" ref="O195:O226" si="16">C195-N195</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
@@ -9604,6 +10056,13 @@
         <f t="shared" si="14"/>
         <v>0.8571428571428571</v>
       </c>
+      <c r="N196">
+        <v>16</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
@@ -9626,6 +10085,35 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
+      <c r="G197">
+        <v>26</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>31</v>
+      </c>
+      <c r="K197">
+        <v>55</v>
+      </c>
+      <c r="L197">
+        <v>26</v>
+      </c>
+      <c r="M197">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="N197">
+        <v>19</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
@@ -9648,6 +10136,35 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
+      <c r="G198">
+        <v>26</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198" t="s">
+        <v>31</v>
+      </c>
+      <c r="K198">
+        <v>20</v>
+      </c>
+      <c r="L198">
+        <v>14</v>
+      </c>
+      <c r="M198">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="N198">
+        <v>21</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
@@ -9670,6 +10187,35 @@
         <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
+      <c r="G199">
+        <v>26</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
+        <v>31</v>
+      </c>
+      <c r="K199">
+        <v>27</v>
+      </c>
+      <c r="L199">
+        <v>17</v>
+      </c>
+      <c r="M199">
+        <f t="shared" ref="M199:M226" si="17">K199-L199</f>
+        <v>10</v>
+      </c>
+      <c r="N199">
+        <v>17</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
@@ -9692,6 +10238,35 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
+      <c r="G200">
+        <v>26</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200" t="s">
+        <v>31</v>
+      </c>
+      <c r="K200">
+        <v>45</v>
+      </c>
+      <c r="L200">
+        <v>16</v>
+      </c>
+      <c r="M200">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="N200">
+        <v>23</v>
+      </c>
+      <c r="O200">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
@@ -9705,60 +10280,1746 @@
         <v>25</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E201">
         <v>2</v>
       </c>
       <c r="F201">
         <f t="shared" si="14"/>
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G201">
+        <v>26</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201" t="s">
+        <v>32</v>
+      </c>
+      <c r="K201">
+        <v>13</v>
+      </c>
+      <c r="L201">
+        <v>30</v>
+      </c>
+      <c r="M201">
+        <f t="shared" si="17"/>
+        <v>-17</v>
+      </c>
+      <c r="N201">
+        <v>26</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="16"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>0</v>
-      </c>
-      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202">
+        <v>9</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>7</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>26</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202" t="s">
+        <v>31</v>
+      </c>
+      <c r="K202">
+        <v>34</v>
+      </c>
+      <c r="L202">
+        <v>7</v>
+      </c>
+      <c r="M202">
+        <f t="shared" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203">
+        <v>9</v>
+      </c>
+      <c r="C203">
+        <f>C202+1</f>
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>7</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>26</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203" t="s">
+        <v>31</v>
+      </c>
+      <c r="K203">
+        <v>31</v>
+      </c>
+      <c r="L203">
+        <v>12</v>
+      </c>
+      <c r="M203">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>9</v>
+      </c>
+      <c r="C204">
+        <f t="shared" ref="C204:C226" si="18">C203+1</f>
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>7</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="14"/>
+        <v>0.875</v>
+      </c>
+      <c r="N204">
+        <v>3</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205">
+        <v>9</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="D205">
+        <v>8</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>26</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>31</v>
+      </c>
+      <c r="K205">
+        <v>52</v>
+      </c>
+      <c r="L205">
+        <v>21</v>
+      </c>
+      <c r="M205">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="N205">
+        <v>4</v>
+      </c>
+      <c r="O205">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>9</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="D206">
+        <v>7</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="14"/>
+        <v>0.875</v>
+      </c>
+      <c r="G206">
+        <v>20</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>31</v>
+      </c>
+      <c r="K206">
+        <v>33</v>
+      </c>
+      <c r="L206">
+        <v>24</v>
+      </c>
+      <c r="M206">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="N206">
+        <v>6</v>
+      </c>
+      <c r="O206">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207">
+        <v>9</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="D207">
+        <v>7</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>8</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207" t="s">
+        <v>32</v>
+      </c>
+      <c r="K207">
+        <v>33</v>
+      </c>
+      <c r="L207">
+        <v>37</v>
+      </c>
+      <c r="M207">
+        <f t="shared" si="17"/>
+        <v>-4</v>
+      </c>
+      <c r="N207">
+        <v>9</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="16"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208">
+        <v>9</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="D208">
+        <v>6</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="14"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G208">
+        <v>26</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>31</v>
+      </c>
+      <c r="K208">
+        <v>52</v>
+      </c>
+      <c r="L208">
+        <v>29</v>
+      </c>
+      <c r="M208">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="N208">
+        <v>7</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>47</v>
+      </c>
+      <c r="B209">
+        <v>9</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="D209">
+        <v>7</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>6</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
+        <v>31</v>
+      </c>
+      <c r="K209">
+        <v>37</v>
+      </c>
+      <c r="L209">
+        <v>33</v>
+      </c>
+      <c r="M209">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="N209">
+        <v>5</v>
+      </c>
+      <c r="O209">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>35</v>
+      </c>
+      <c r="B210">
+        <v>9</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="D210">
+        <v>6</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="14"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G210">
+        <v>26</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" t="s">
+        <v>32</v>
+      </c>
+      <c r="K210">
+        <v>7</v>
+      </c>
+      <c r="L210">
+        <v>27</v>
+      </c>
+      <c r="M210">
+        <f t="shared" si="17"/>
+        <v>-20</v>
+      </c>
+      <c r="N210">
+        <v>19</v>
+      </c>
+      <c r="O210">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>38</v>
+      </c>
+      <c r="B211">
+        <v>9</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="D211">
+        <v>6</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="14"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G211">
+        <v>18</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>32</v>
+      </c>
+      <c r="K211">
+        <v>20</v>
+      </c>
+      <c r="L211">
+        <v>31</v>
+      </c>
+      <c r="M211">
+        <f t="shared" si="17"/>
+        <v>-11</v>
+      </c>
+      <c r="N211">
+        <v>15</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="16"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212">
+        <v>9</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="D212">
+        <v>6</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="14"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G212">
+        <v>26</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>31</v>
+      </c>
+      <c r="K212">
+        <v>44</v>
+      </c>
+      <c r="L212">
+        <v>34</v>
+      </c>
+      <c r="M212">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="N212">
+        <v>8</v>
+      </c>
+      <c r="O212">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>54</v>
+      </c>
+      <c r="B213">
+        <v>9</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="14"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G213">
+        <v>26</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213" t="s">
+        <v>32</v>
+      </c>
+      <c r="K213">
+        <v>31</v>
+      </c>
+      <c r="L213">
+        <v>17</v>
+      </c>
+      <c r="M213">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="N213">
+        <v>18</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="16"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>53</v>
+      </c>
+      <c r="B214">
+        <v>9</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="D214">
+        <v>7</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>26</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="s">
+        <v>31</v>
+      </c>
+      <c r="K214">
+        <v>45</v>
+      </c>
+      <c r="L214">
+        <v>7</v>
+      </c>
+      <c r="M214">
+        <f t="shared" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="N214">
+        <v>10</v>
+      </c>
+      <c r="O214">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215">
+        <v>9</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="D215">
+        <v>6</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="N215">
+        <v>13</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>50</v>
+      </c>
+      <c r="B216">
+        <v>9</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="D216">
+        <v>8</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>26</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216" t="s">
+        <v>31</v>
+      </c>
+      <c r="K216">
+        <v>55</v>
+      </c>
+      <c r="L216">
+        <v>3</v>
+      </c>
+      <c r="M216">
+        <f t="shared" si="17"/>
+        <v>52</v>
+      </c>
+      <c r="N216">
+        <v>11</v>
+      </c>
+      <c r="O216">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>51</v>
+      </c>
+      <c r="B217">
+        <v>9</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="D217">
+        <v>6</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="14"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G217">
+        <v>26</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217" t="s">
+        <v>31</v>
+      </c>
+      <c r="K217">
+        <v>31</v>
+      </c>
+      <c r="L217">
+        <v>24</v>
+      </c>
+      <c r="M217">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="N217">
+        <v>14</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>58</v>
+      </c>
+      <c r="B218">
+        <v>9</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="D218">
+        <v>6</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="14"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G218">
+        <v>26</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218" t="s">
+        <v>32</v>
+      </c>
+      <c r="K218">
+        <v>34</v>
+      </c>
+      <c r="L218">
+        <v>38</v>
+      </c>
+      <c r="M218">
+        <f t="shared" si="17"/>
+        <v>-4</v>
+      </c>
+      <c r="N218">
+        <v>26</v>
+      </c>
+      <c r="O218">
+        <f t="shared" si="16"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>39</v>
+      </c>
+      <c r="B219">
+        <v>9</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="D219">
+        <v>5</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="14"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G219">
+        <v>10</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>31</v>
+      </c>
+      <c r="K219">
+        <v>31</v>
+      </c>
+      <c r="L219">
+        <v>20</v>
+      </c>
+      <c r="M219">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="N219">
+        <v>12</v>
+      </c>
+      <c r="O219">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>55</v>
+      </c>
+      <c r="B220">
+        <v>9</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="D220">
+        <v>7</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <f t="shared" ref="F220:F226" si="19">D220/(D220+E220)</f>
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>26</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>32</v>
+      </c>
+      <c r="K220">
+        <v>37</v>
+      </c>
+      <c r="L220">
+        <v>44</v>
+      </c>
+      <c r="M220">
+        <f t="shared" si="17"/>
+        <v>-7</v>
+      </c>
+      <c r="N220">
+        <v>23</v>
+      </c>
+      <c r="O220">
+        <f t="shared" si="16"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221">
+        <v>9</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="D221">
+        <v>5</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="19"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G221">
+        <v>5</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221" t="s">
+        <v>32</v>
+      </c>
+      <c r="K221">
+        <v>24</v>
+      </c>
+      <c r="L221">
+        <v>33</v>
+      </c>
+      <c r="M221">
+        <f t="shared" si="17"/>
+        <v>-9</v>
+      </c>
+      <c r="N221">
+        <v>22</v>
+      </c>
+      <c r="O221">
+        <f t="shared" si="16"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>56</v>
+      </c>
+      <c r="B222">
+        <v>9</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="D222">
+        <v>7</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>26</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="s">
+        <v>32</v>
+      </c>
+      <c r="K222">
+        <v>20</v>
+      </c>
+      <c r="L222">
+        <v>30</v>
+      </c>
+      <c r="M222">
+        <f t="shared" si="17"/>
+        <v>-10</v>
+      </c>
+      <c r="N222">
+        <v>26</v>
+      </c>
+      <c r="O222">
+        <f t="shared" si="16"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223">
+        <v>9</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="D223">
+        <v>5</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="19"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G223">
+        <v>26</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223" t="s">
+        <v>32</v>
+      </c>
+      <c r="K223">
+        <v>31</v>
+      </c>
+      <c r="L223">
+        <v>38</v>
+      </c>
+      <c r="M223">
+        <f t="shared" si="17"/>
+        <v>-7</v>
+      </c>
+      <c r="N223">
+        <v>26</v>
+      </c>
+      <c r="O223">
+        <f t="shared" si="16"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>59</v>
+      </c>
+      <c r="B224">
+        <v>9</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="D224">
+        <v>8</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>16</v>
+      </c>
+      <c r="O224">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>21</v>
+      </c>
+      <c r="B225">
+        <v>9</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="D225">
+        <v>6</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="19"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G225">
+        <v>26</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>31</v>
+      </c>
+      <c r="K225">
+        <v>35</v>
+      </c>
+      <c r="L225">
+        <v>28</v>
+      </c>
+      <c r="M225">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="N225">
+        <v>21</v>
+      </c>
+      <c r="O225">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>43</v>
+      </c>
+      <c r="B226">
+        <v>9</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
-      <c r="C202" t="s">
-        <v>26</v>
-      </c>
-      <c r="D202" t="s">
-        <v>31</v>
-      </c>
-      <c r="E202" t="s">
+      <c r="D226">
+        <v>6</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="19"/>
+        <v>0.75</v>
+      </c>
+      <c r="G226">
+        <v>26</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>31</v>
+      </c>
+      <c r="K226">
+        <v>66</v>
+      </c>
+      <c r="L226">
+        <v>49</v>
+      </c>
+      <c r="M226">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="N226">
+        <v>17</v>
+      </c>
+      <c r="O226">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227">
+        <v>10</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>8</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228">
+        <v>10</v>
+      </c>
+      <c r="C228">
+        <f>C227+1</f>
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>8</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>10</v>
+      </c>
+      <c r="C229">
+        <f t="shared" ref="C229:C252" si="20">C228+1</f>
+        <v>3</v>
+      </c>
+      <c r="D229">
+        <v>7</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230">
+        <v>10</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="D230">
+        <v>9</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>47</v>
+      </c>
+      <c r="B231">
+        <v>10</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="D231">
+        <v>8</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232">
+        <v>10</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="D232">
+        <v>7</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233">
+        <v>10</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="D233">
+        <v>7</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234">
+        <v>10</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="D234">
+        <v>7</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>44</v>
+      </c>
+      <c r="B235">
+        <v>10</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="D235">
+        <v>7</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>53</v>
+      </c>
+      <c r="B236">
+        <v>10</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="D236">
+        <v>8</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>50</v>
+      </c>
+      <c r="B237">
+        <v>10</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="D237">
+        <v>9</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>39</v>
+      </c>
+      <c r="B238">
+        <v>10</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="D238">
+        <v>6</v>
+      </c>
+      <c r="E238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239">
+        <v>10</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="D239">
+        <v>6</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>51</v>
+      </c>
+      <c r="B240">
+        <v>10</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="D240">
+        <v>7</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>38</v>
+      </c>
+      <c r="B241">
+        <v>10</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="D241">
+        <v>6</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>59</v>
+      </c>
+      <c r="B242">
+        <v>10</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="D242">
+        <v>8</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>43</v>
+      </c>
+      <c r="B243">
+        <v>10</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="D243">
+        <v>7</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>54</v>
+      </c>
+      <c r="B244">
+        <v>10</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="D244">
+        <v>6</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>35</v>
+      </c>
+      <c r="B245">
+        <v>10</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="D245">
+        <v>6</v>
+      </c>
+      <c r="E245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>61</v>
+      </c>
+      <c r="B246">
+        <v>10</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="D246">
+        <v>7</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>21</v>
+      </c>
+      <c r="B247">
+        <v>10</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="D247">
+        <v>7</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>18</v>
+      </c>
+      <c r="B248">
+        <v>10</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="20"/>
+        <v>22</v>
+      </c>
+      <c r="D248">
+        <v>5</v>
+      </c>
+      <c r="E248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>55</v>
+      </c>
+      <c r="B249">
+        <v>10</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="20"/>
+        <v>23</v>
+      </c>
+      <c r="D249">
+        <v>7</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>22</v>
+      </c>
+      <c r="B250">
+        <v>10</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="D250">
+        <v>7</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>48</v>
+      </c>
+      <c r="B251">
+        <v>10</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="D251">
+        <v>7</v>
+      </c>
+      <c r="E251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>25</v>
+      </c>
+      <c r="C252" t="s">
+        <v>26</v>
+      </c>
+      <c r="D252" t="s">
+        <v>31</v>
+      </c>
+      <c r="E252" t="s">
         <v>32</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F252" t="s">
         <v>33</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G252" t="s">
         <v>34</v>
       </c>
-      <c r="H202" t="s">
+      <c r="H252" t="s">
         <v>46</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I252" t="s">
         <v>45</v>
       </c>
-      <c r="J202" t="s">
+      <c r="J252" t="s">
         <v>27</v>
       </c>
-      <c r="K202" t="s">
+      <c r="K252" t="s">
         <v>28</v>
       </c>
-      <c r="L202" t="s">
+      <c r="L252" t="s">
         <v>29</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M252" t="s">
         <v>30</v>
       </c>
-      <c r="N202" t="s">
+      <c r="N252" t="s">
         <v>40</v>
       </c>
-      <c r="O202" t="s">
+      <c r="O252" t="s">
         <v>41</v>
       </c>
     </row>

--- a/tables/2021AP.xlsx
+++ b/tables/2021AP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eanma\Google Drive\Data Projects\top25\top25_project\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6E779D-D2FD-465E-A894-DBD66B225BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5EB134-42B5-4459-93B2-8D43E1360FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="6620" windowWidth="22530" windowHeight="7450" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
+    <workbookView xWindow="5920" yWindow="1940" windowWidth="22530" windowHeight="7450" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="62">
   <si>
     <t>Team</t>
   </si>
@@ -571,11 +571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48743F2A-DB94-4EE1-849C-517D3A883C44}">
-  <dimension ref="A1:O252"/>
+  <dimension ref="A1:O277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D253" sqref="D253"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J256" sqref="J256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7678,11 +7678,11 @@
         <v>4</v>
       </c>
       <c r="E144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F144">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -10031,7 +10031,7 @@
         <v>18</v>
       </c>
       <c r="O195">
-        <f t="shared" ref="O195:O226" si="16">C195-N195</f>
+        <f t="shared" ref="O195:O258" si="16">C195-N195</f>
         <v>1</v>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
         <v>17</v>
       </c>
       <c r="M199">
-        <f t="shared" ref="M199:M226" si="17">K199-L199</f>
+        <f t="shared" ref="M199:M251" si="17">K199-L199</f>
         <v>10</v>
       </c>
       <c r="N199">
@@ -11210,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <f t="shared" ref="F220:F226" si="19">D220/(D220+E220)</f>
+        <f t="shared" ref="F220:F276" si="19">D220/(D220+E220)</f>
         <v>1</v>
       </c>
       <c r="G220">
@@ -11543,6 +11543,39 @@
       <c r="E227">
         <v>0</v>
       </c>
+      <c r="F227">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>26</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="s">
+        <v>31</v>
+      </c>
+      <c r="K227">
+        <v>43</v>
+      </c>
+      <c r="L227">
+        <v>6</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="17"/>
+        <v>37</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
@@ -11561,6 +11594,39 @@
       <c r="E228">
         <v>0</v>
       </c>
+      <c r="F228">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>26</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="s">
+        <v>31</v>
+      </c>
+      <c r="K228">
+        <v>28</v>
+      </c>
+      <c r="L228">
+        <v>20</v>
+      </c>
+      <c r="M228">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
@@ -11570,7 +11636,7 @@
         <v>10</v>
       </c>
       <c r="C229">
-        <f t="shared" ref="C229:C252" si="20">C228+1</f>
+        <f t="shared" ref="C229:C251" si="20">C228+1</f>
         <v>3</v>
       </c>
       <c r="D229">
@@ -11578,6 +11644,39 @@
       </c>
       <c r="E229">
         <v>1</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="19"/>
+        <v>0.875</v>
+      </c>
+      <c r="G229">
+        <v>26</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>31</v>
+      </c>
+      <c r="K229">
+        <v>20</v>
+      </c>
+      <c r="L229">
+        <v>14</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.35">
@@ -11597,6 +11696,17 @@
       <c r="E230">
         <v>0</v>
       </c>
+      <c r="F230">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="N230">
+        <v>4</v>
+      </c>
+      <c r="O230">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
@@ -11615,6 +11725,39 @@
       <c r="E231">
         <v>0</v>
       </c>
+      <c r="F231">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>26</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231" t="s">
+        <v>32</v>
+      </c>
+      <c r="K231">
+        <v>29</v>
+      </c>
+      <c r="L231">
+        <v>40</v>
+      </c>
+      <c r="M231">
+        <f t="shared" si="17"/>
+        <v>-11</v>
+      </c>
+      <c r="N231">
+        <v>8</v>
+      </c>
+      <c r="O231">
+        <f t="shared" si="16"/>
+        <v>-3</v>
+      </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
@@ -11633,6 +11776,39 @@
       <c r="E232">
         <v>1</v>
       </c>
+      <c r="F232">
+        <f t="shared" si="19"/>
+        <v>0.875</v>
+      </c>
+      <c r="G232">
+        <v>26</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232" t="s">
+        <v>31</v>
+      </c>
+      <c r="K232">
+        <v>26</v>
+      </c>
+      <c r="L232">
+        <v>17</v>
+      </c>
+      <c r="M232">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="N232">
+        <v>6</v>
+      </c>
+      <c r="O232">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
@@ -11651,6 +11827,39 @@
       <c r="E233">
         <v>1</v>
       </c>
+      <c r="F233">
+        <f t="shared" si="19"/>
+        <v>0.875</v>
+      </c>
+      <c r="G233">
+        <v>26</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233" t="s">
+        <v>31</v>
+      </c>
+      <c r="K233">
+        <v>26</v>
+      </c>
+      <c r="L233">
+        <v>16</v>
+      </c>
+      <c r="M233">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="N233">
+        <v>5</v>
+      </c>
+      <c r="O233">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
@@ -11669,6 +11878,39 @@
       <c r="E234">
         <v>1</v>
       </c>
+      <c r="F234">
+        <f t="shared" si="19"/>
+        <v>0.875</v>
+      </c>
+      <c r="G234">
+        <v>26</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234" t="s">
+        <v>31</v>
+      </c>
+      <c r="K234">
+        <v>34</v>
+      </c>
+      <c r="L234">
+        <v>6</v>
+      </c>
+      <c r="M234">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="N234">
+        <v>7</v>
+      </c>
+      <c r="O234">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
@@ -11687,6 +11929,39 @@
       <c r="E235">
         <v>1</v>
       </c>
+      <c r="F235">
+        <f t="shared" si="19"/>
+        <v>0.875</v>
+      </c>
+      <c r="G235">
+        <v>26</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="s">
+        <v>31</v>
+      </c>
+      <c r="K235">
+        <v>29</v>
+      </c>
+      <c r="L235">
+        <v>7</v>
+      </c>
+      <c r="M235">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="N235">
+        <v>9</v>
+      </c>
+      <c r="O235">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
@@ -11705,6 +11980,39 @@
       <c r="E236">
         <v>0</v>
       </c>
+      <c r="F236">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>26</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236" t="s">
+        <v>32</v>
+      </c>
+      <c r="K236">
+        <v>55</v>
+      </c>
+      <c r="L236">
+        <v>58</v>
+      </c>
+      <c r="M236">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="N236">
+        <v>13</v>
+      </c>
+      <c r="O236">
+        <f t="shared" si="16"/>
+        <v>-3</v>
+      </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
@@ -11723,6 +12031,39 @@
       <c r="E237">
         <v>0</v>
       </c>
+      <c r="F237">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>26</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237" t="s">
+        <v>31</v>
+      </c>
+      <c r="K237">
+        <v>24</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="N237">
+        <v>10</v>
+      </c>
+      <c r="O237">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
@@ -11741,6 +12082,39 @@
       <c r="E238">
         <v>2</v>
       </c>
+      <c r="F238">
+        <f t="shared" si="19"/>
+        <v>0.75</v>
+      </c>
+      <c r="G238">
+        <v>13</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" t="s">
+        <v>32</v>
+      </c>
+      <c r="K238">
+        <v>3</v>
+      </c>
+      <c r="L238">
+        <v>20</v>
+      </c>
+      <c r="M238">
+        <f t="shared" si="17"/>
+        <v>-17</v>
+      </c>
+      <c r="N238">
+        <v>16</v>
+      </c>
+      <c r="O238">
+        <f t="shared" si="16"/>
+        <v>-4</v>
+      </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
@@ -11759,6 +12133,39 @@
       <c r="E239">
         <v>2</v>
       </c>
+      <c r="F239">
+        <f t="shared" si="19"/>
+        <v>0.75</v>
+      </c>
+      <c r="G239">
+        <v>12</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="s">
+        <v>31</v>
+      </c>
+      <c r="K239">
+        <v>20</v>
+      </c>
+      <c r="L239">
+        <v>3</v>
+      </c>
+      <c r="M239">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="N239">
+        <v>11</v>
+      </c>
+      <c r="O239">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
@@ -11777,6 +12184,39 @@
       <c r="E240">
         <v>1</v>
       </c>
+      <c r="F240">
+        <f t="shared" si="19"/>
+        <v>0.875</v>
+      </c>
+      <c r="G240">
+        <v>26</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240" t="s">
+        <v>32</v>
+      </c>
+      <c r="K240">
+        <v>28</v>
+      </c>
+      <c r="L240">
+        <v>30</v>
+      </c>
+      <c r="M240">
+        <f t="shared" si="17"/>
+        <v>-2</v>
+      </c>
+      <c r="N240">
+        <v>18</v>
+      </c>
+      <c r="O240">
+        <f t="shared" si="16"/>
+        <v>-4</v>
+      </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
@@ -11795,6 +12235,39 @@
       <c r="E241">
         <v>2</v>
       </c>
+      <c r="F241">
+        <f t="shared" si="19"/>
+        <v>0.75</v>
+      </c>
+      <c r="G241">
+        <v>26</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241" t="s">
+        <v>31</v>
+      </c>
+      <c r="K241">
+        <v>27</v>
+      </c>
+      <c r="L241">
+        <v>14</v>
+      </c>
+      <c r="M241">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="N241">
+        <v>12</v>
+      </c>
+      <c r="O241">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
@@ -11813,6 +12286,39 @@
       <c r="E242">
         <v>0</v>
       </c>
+      <c r="F242">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>26</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242" t="s">
+        <v>31</v>
+      </c>
+      <c r="K242">
+        <v>44</v>
+      </c>
+      <c r="L242">
+        <v>23</v>
+      </c>
+      <c r="M242">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="N242">
+        <v>15</v>
+      </c>
+      <c r="O242">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
@@ -11831,6 +12337,39 @@
       <c r="E243">
         <v>2</v>
       </c>
+      <c r="F243">
+        <f t="shared" si="19"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G243">
+        <v>26</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243" t="s">
+        <v>31</v>
+      </c>
+      <c r="K243">
+        <v>59</v>
+      </c>
+      <c r="L243">
+        <v>14</v>
+      </c>
+      <c r="M243">
+        <f t="shared" si="17"/>
+        <v>45</v>
+      </c>
+      <c r="N243">
+        <v>14</v>
+      </c>
+      <c r="O243">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
@@ -11849,6 +12388,39 @@
       <c r="E244">
         <v>2</v>
       </c>
+      <c r="F244">
+        <f t="shared" si="19"/>
+        <v>0.75</v>
+      </c>
+      <c r="G244">
+        <v>26</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244" t="s">
+        <v>32</v>
+      </c>
+      <c r="K244">
+        <v>42</v>
+      </c>
+      <c r="L244">
+        <v>45</v>
+      </c>
+      <c r="M244">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="N244">
+        <v>26</v>
+      </c>
+      <c r="O244">
+        <f t="shared" si="16"/>
+        <v>-8</v>
+      </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
@@ -11867,6 +12439,39 @@
       <c r="E245">
         <v>2</v>
       </c>
+      <c r="F245">
+        <f t="shared" si="19"/>
+        <v>0.75</v>
+      </c>
+      <c r="G245">
+        <v>26</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245" t="s">
+        <v>31</v>
+      </c>
+      <c r="K245">
+        <v>17</v>
+      </c>
+      <c r="L245">
+        <v>12</v>
+      </c>
+      <c r="M245">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="N245">
+        <v>19</v>
+      </c>
+      <c r="O245">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
@@ -11885,6 +12490,39 @@
       <c r="E246">
         <v>1</v>
       </c>
+      <c r="F246">
+        <f t="shared" si="19"/>
+        <v>0.875</v>
+      </c>
+      <c r="G246">
+        <v>26</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246" t="s">
+        <v>31</v>
+      </c>
+      <c r="K246">
+        <v>54</v>
+      </c>
+      <c r="L246">
+        <v>42</v>
+      </c>
+      <c r="M246">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="N246">
+        <v>17</v>
+      </c>
+      <c r="O246">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
@@ -11903,6 +12541,39 @@
       <c r="E247">
         <v>1</v>
       </c>
+      <c r="F247">
+        <f t="shared" si="19"/>
+        <v>0.875</v>
+      </c>
+      <c r="G247">
+        <v>26</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247" t="s">
+        <v>31</v>
+      </c>
+      <c r="K247">
+        <v>28</v>
+      </c>
+      <c r="L247">
+        <v>8</v>
+      </c>
+      <c r="M247">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="N247">
+        <v>22</v>
+      </c>
+      <c r="O247">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
@@ -11921,6 +12592,39 @@
       <c r="E248">
         <v>3</v>
       </c>
+      <c r="F248">
+        <f t="shared" si="19"/>
+        <v>0.625</v>
+      </c>
+      <c r="G248">
+        <v>26</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248" t="s">
+        <v>31</v>
+      </c>
+      <c r="K248">
+        <v>31</v>
+      </c>
+      <c r="L248">
+        <v>14</v>
+      </c>
+      <c r="M248">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="N248">
+        <v>23</v>
+      </c>
+      <c r="O248">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
@@ -11939,6 +12643,39 @@
       <c r="E249">
         <v>1</v>
       </c>
+      <c r="F249">
+        <f t="shared" si="19"/>
+        <v>0.875</v>
+      </c>
+      <c r="G249">
+        <v>26</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249" t="s">
+        <v>32</v>
+      </c>
+      <c r="K249">
+        <v>25</v>
+      </c>
+      <c r="L249">
+        <v>28</v>
+      </c>
+      <c r="M249">
+        <f t="shared" si="17"/>
+        <v>-3</v>
+      </c>
+      <c r="N249">
+        <v>26</v>
+      </c>
+      <c r="O249">
+        <f t="shared" si="16"/>
+        <v>-3</v>
+      </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
@@ -11957,6 +12694,39 @@
       <c r="E250">
         <v>1</v>
       </c>
+      <c r="F250">
+        <f t="shared" si="19"/>
+        <v>0.875</v>
+      </c>
+      <c r="G250">
+        <v>26</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250" t="s">
+        <v>31</v>
+      </c>
+      <c r="K250">
+        <v>21</v>
+      </c>
+      <c r="L250">
+        <v>17</v>
+      </c>
+      <c r="M250">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="N250">
+        <v>24</v>
+      </c>
+      <c r="O250">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
@@ -11975,51 +12745,633 @@
       <c r="E251">
         <v>2</v>
       </c>
+      <c r="F251">
+        <f t="shared" si="19"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G251">
+        <v>26</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251" t="s">
+        <v>32</v>
+      </c>
+      <c r="K251">
+        <v>14</v>
+      </c>
+      <c r="L251">
+        <v>40</v>
+      </c>
+      <c r="M251">
+        <f t="shared" si="17"/>
+        <v>-26</v>
+      </c>
+      <c r="N251">
+        <v>26</v>
+      </c>
+      <c r="O251">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>0</v>
-      </c>
-      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252">
+        <v>11</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>9</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253">
+        <v>11</v>
+      </c>
+      <c r="C253">
+        <f>C252+1</f>
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>9</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>1</v>
+      </c>
+      <c r="B254">
+        <v>11</v>
+      </c>
+      <c r="C254">
+        <f>C253+1</f>
+        <v>3</v>
+      </c>
+      <c r="D254">
+        <v>8</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255">
+        <v>11</v>
+      </c>
+      <c r="C255">
+        <f t="shared" ref="C255:C276" si="21">C254+1</f>
+        <v>4</v>
+      </c>
+      <c r="D255">
+        <v>9</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>11</v>
+      </c>
+      <c r="B256">
+        <v>11</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="D256">
+        <v>8</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257">
+        <v>11</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="D257">
+        <v>8</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258">
+        <v>11</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="D258">
+        <v>8</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>47</v>
+      </c>
+      <c r="B259">
+        <v>11</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="D259">
+        <v>8</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>44</v>
+      </c>
+      <c r="B260">
+        <v>11</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="D260">
+        <v>8</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>50</v>
+      </c>
+      <c r="B261">
+        <v>11</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="D261">
+        <v>8</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>6</v>
+      </c>
+      <c r="B262">
+        <v>11</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="D262">
+        <v>7</v>
+      </c>
+      <c r="E262">
+        <v>2</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="19"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>38</v>
+      </c>
+      <c r="B263">
+        <v>11</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="D263">
+        <v>7</v>
+      </c>
+      <c r="E263">
+        <v>2</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="19"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>53</v>
+      </c>
+      <c r="B264">
+        <v>11</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="D264">
+        <v>8</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>43</v>
+      </c>
+      <c r="B265">
+        <v>11</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="D265">
+        <v>8</v>
+      </c>
+      <c r="E265">
+        <v>2</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>59</v>
+      </c>
+      <c r="B266">
+        <v>11</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="D266">
+        <v>9</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>39</v>
+      </c>
+      <c r="B267">
+        <v>11</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="D267">
+        <v>6</v>
+      </c>
+      <c r="E267">
+        <v>3</v>
+      </c>
+      <c r="F267">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>61</v>
+      </c>
+      <c r="B268">
+        <v>11</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="21"/>
+        <v>17</v>
+      </c>
+      <c r="D268">
+        <v>8</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>51</v>
+      </c>
+      <c r="B269">
+        <v>11</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="21"/>
+        <v>18</v>
+      </c>
+      <c r="D269">
+        <v>7</v>
+      </c>
+      <c r="E269">
+        <v>2</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="19"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>35</v>
+      </c>
+      <c r="B270">
+        <v>11</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="D270">
+        <v>7</v>
+      </c>
+      <c r="E270">
+        <v>2</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="19"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271">
+        <v>11</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="D271">
+        <v>6</v>
+      </c>
+      <c r="E271">
+        <v>3</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>52</v>
+      </c>
+      <c r="B272">
+        <v>11</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="21"/>
+        <v>21</v>
+      </c>
+      <c r="D272">
+        <v>7</v>
+      </c>
+      <c r="E272">
+        <v>2</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="19"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>21</v>
+      </c>
+      <c r="B273">
+        <v>11</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="21"/>
+        <v>22</v>
+      </c>
+      <c r="D273">
+        <v>8</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>18</v>
+      </c>
+      <c r="B274">
+        <v>11</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="D274">
+        <v>6</v>
+      </c>
+      <c r="E274">
+        <v>3</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>22</v>
+      </c>
+      <c r="B275">
+        <v>11</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="D275">
+        <v>8</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="19"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>58</v>
+      </c>
+      <c r="B276">
+        <v>11</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
-      <c r="C252" t="s">
-        <v>26</v>
-      </c>
-      <c r="D252" t="s">
-        <v>31</v>
-      </c>
-      <c r="E252" t="s">
+      <c r="D276">
+        <v>7</v>
+      </c>
+      <c r="E276">
+        <v>2</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="19"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277" t="s">
+        <v>25</v>
+      </c>
+      <c r="C277" t="s">
+        <v>26</v>
+      </c>
+      <c r="D277" t="s">
+        <v>31</v>
+      </c>
+      <c r="E277" t="s">
         <v>32</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F277" t="s">
         <v>33</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G277" t="s">
         <v>34</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H277" t="s">
         <v>46</v>
       </c>
-      <c r="I252" t="s">
+      <c r="I277" t="s">
         <v>45</v>
       </c>
-      <c r="J252" t="s">
+      <c r="J277" t="s">
         <v>27</v>
       </c>
-      <c r="K252" t="s">
+      <c r="K277" t="s">
         <v>28</v>
       </c>
-      <c r="L252" t="s">
+      <c r="L277" t="s">
         <v>29</v>
       </c>
-      <c r="M252" t="s">
+      <c r="M277" t="s">
         <v>30</v>
       </c>
-      <c r="N252" t="s">
+      <c r="N277" t="s">
         <v>40</v>
       </c>
-      <c r="O252" t="s">
+      <c r="O277" t="s">
         <v>41</v>
       </c>
     </row>

--- a/tables/2021AP.xlsx
+++ b/tables/2021AP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eanma\Google Drive\Data Projects\top25\top25_project\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5EB134-42B5-4459-93B2-8D43E1360FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4CD508-9BA5-47A3-8C16-5F8891C4EA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="1940" windowWidth="22530" windowHeight="7450" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
+    <workbookView xWindow="30" yWindow="2110" windowWidth="22530" windowHeight="7450" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="62">
   <si>
     <t>Team</t>
   </si>
@@ -571,11 +571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48743F2A-DB94-4EE1-849C-517D3A883C44}">
-  <dimension ref="A1:O277"/>
+  <dimension ref="A1:O302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J256" sqref="J256"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M262" sqref="M262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10206,7 +10206,7 @@
         <v>17</v>
       </c>
       <c r="M199">
-        <f t="shared" ref="M199:M251" si="17">K199-L199</f>
+        <f t="shared" ref="M199:M264" si="17">K199-L199</f>
         <v>10</v>
       </c>
       <c r="N199">
@@ -11210,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <f t="shared" ref="F220:F276" si="19">D220/(D220+E220)</f>
+        <f t="shared" ref="F220:F301" si="19">D220/(D220+E220)</f>
         <v>1</v>
       </c>
       <c r="G220">
@@ -12799,6 +12799,35 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
+      <c r="G252">
+        <v>26</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252" t="s">
+        <v>31</v>
+      </c>
+      <c r="K252">
+        <v>41</v>
+      </c>
+      <c r="L252">
+        <v>17</v>
+      </c>
+      <c r="M252">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
@@ -12821,6 +12850,35 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
+      <c r="G253">
+        <v>26</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253" t="s">
+        <v>31</v>
+      </c>
+      <c r="K253">
+        <v>45</v>
+      </c>
+      <c r="L253">
+        <v>28</v>
+      </c>
+      <c r="M253">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="N253">
+        <v>3</v>
+      </c>
+      <c r="O253">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
@@ -12843,6 +12901,35 @@
         <f t="shared" si="19"/>
         <v>0.88888888888888884</v>
       </c>
+      <c r="G254">
+        <v>26</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254" t="s">
+        <v>31</v>
+      </c>
+      <c r="K254">
+        <v>59</v>
+      </c>
+      <c r="L254">
+        <v>3</v>
+      </c>
+      <c r="M254">
+        <f t="shared" si="17"/>
+        <v>56</v>
+      </c>
+      <c r="N254">
+        <v>2</v>
+      </c>
+      <c r="O254">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
@@ -12865,6 +12952,35 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
+      <c r="G255">
+        <v>18</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255" t="s">
+        <v>32</v>
+      </c>
+      <c r="K255">
+        <v>14</v>
+      </c>
+      <c r="L255">
+        <v>27</v>
+      </c>
+      <c r="M255">
+        <f t="shared" si="17"/>
+        <v>-13</v>
+      </c>
+      <c r="N255">
+        <v>12</v>
+      </c>
+      <c r="O255">
+        <f t="shared" si="16"/>
+        <v>-8</v>
+      </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
@@ -12887,8 +13003,37 @@
         <f t="shared" si="19"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G256">
+        <v>26</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" t="s">
+        <v>31</v>
+      </c>
+      <c r="K256">
+        <v>38</v>
+      </c>
+      <c r="L256">
+        <v>24</v>
+      </c>
+      <c r="M256">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="N256">
+        <v>4</v>
+      </c>
+      <c r="O256">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>4</v>
       </c>
@@ -12909,8 +13054,37 @@
         <f t="shared" si="19"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G257">
+        <v>26</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257" t="s">
+        <v>31</v>
+      </c>
+      <c r="K257">
+        <v>59</v>
+      </c>
+      <c r="L257">
+        <v>31</v>
+      </c>
+      <c r="M257">
+        <f t="shared" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="N257">
+        <v>5</v>
+      </c>
+      <c r="O257">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -12931,8 +13105,37 @@
         <f t="shared" si="19"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G258">
+        <v>26</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258" t="s">
+        <v>31</v>
+      </c>
+      <c r="K258">
+        <v>28</v>
+      </c>
+      <c r="L258">
+        <v>3</v>
+      </c>
+      <c r="M258">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="N258">
+        <v>6</v>
+      </c>
+      <c r="O258">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>47</v>
       </c>
@@ -12953,8 +13156,37 @@
         <f t="shared" si="19"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G259">
+        <v>26</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259" t="s">
+        <v>31</v>
+      </c>
+      <c r="K259">
+        <v>40</v>
+      </c>
+      <c r="L259">
+        <v>21</v>
+      </c>
+      <c r="M259">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="N259">
+        <v>7</v>
+      </c>
+      <c r="O259">
+        <f t="shared" ref="O259:O276" si="22">C259-N259</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>44</v>
       </c>
@@ -12975,8 +13207,37 @@
         <f t="shared" si="19"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G260">
+        <v>23</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260" t="s">
+        <v>31</v>
+      </c>
+      <c r="K260">
+        <v>21</v>
+      </c>
+      <c r="L260">
+        <v>17</v>
+      </c>
+      <c r="M260">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="N260">
+        <v>6</v>
+      </c>
+      <c r="O260">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>50</v>
       </c>
@@ -12997,8 +13258,37 @@
         <f t="shared" si="19"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G261">
+        <v>26</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261" t="s">
+        <v>31</v>
+      </c>
+      <c r="K261">
+        <v>63</v>
+      </c>
+      <c r="L261">
+        <v>16</v>
+      </c>
+      <c r="M261">
+        <f t="shared" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="N261">
+        <v>9</v>
+      </c>
+      <c r="O261">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -13019,8 +13309,37 @@
         <f t="shared" si="19"/>
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G262">
+        <v>12</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262" t="s">
+        <v>32</v>
+      </c>
+      <c r="K262">
+        <v>19</v>
+      </c>
+      <c r="L262">
+        <v>29</v>
+      </c>
+      <c r="M262">
+        <f t="shared" si="17"/>
+        <v>-10</v>
+      </c>
+      <c r="N262">
+        <v>16</v>
+      </c>
+      <c r="O262">
+        <f t="shared" si="22"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>38</v>
       </c>
@@ -13041,8 +13360,37 @@
         <f t="shared" si="19"/>
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G263">
+        <v>11</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>1</v>
+      </c>
+      <c r="J263" t="s">
+        <v>31</v>
+      </c>
+      <c r="K263">
+        <v>29</v>
+      </c>
+      <c r="L263">
+        <v>19</v>
+      </c>
+      <c r="M263">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="N263">
+        <v>10</v>
+      </c>
+      <c r="O263">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>53</v>
       </c>
@@ -13063,8 +13411,37 @@
         <f t="shared" si="19"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G264">
+        <v>21</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264" t="s">
+        <v>31</v>
+      </c>
+      <c r="K264">
+        <v>45</v>
+      </c>
+      <c r="L264">
+        <v>42</v>
+      </c>
+      <c r="M264">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="N264">
+        <v>13</v>
+      </c>
+      <c r="O264">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>43</v>
       </c>
@@ -13085,8 +13462,15 @@
         <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="N265">
+        <v>14</v>
+      </c>
+      <c r="O265">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>59</v>
       </c>
@@ -13107,8 +13491,37 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G266">
+        <v>26</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266" t="s">
+        <v>31</v>
+      </c>
+      <c r="K266">
+        <v>27</v>
+      </c>
+      <c r="L266">
+        <v>17</v>
+      </c>
+      <c r="M266">
+        <f t="shared" ref="M266:M276" si="23">K266-L266</f>
+        <v>10</v>
+      </c>
+      <c r="N266">
+        <v>15</v>
+      </c>
+      <c r="O266">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>39</v>
       </c>
@@ -13129,8 +13542,37 @@
         <f t="shared" si="19"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G267">
+        <v>26</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267" t="s">
+        <v>32</v>
+      </c>
+      <c r="K267">
+        <v>34</v>
+      </c>
+      <c r="L267">
+        <v>43</v>
+      </c>
+      <c r="M267">
+        <f t="shared" si="23"/>
+        <v>-9</v>
+      </c>
+      <c r="N267">
+        <v>26</v>
+      </c>
+      <c r="O267">
+        <f t="shared" si="22"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>61</v>
       </c>
@@ -13151,8 +13593,37 @@
         <f t="shared" si="19"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G268">
+        <v>26</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268" t="s">
+        <v>31</v>
+      </c>
+      <c r="K268">
+        <v>37</v>
+      </c>
+      <c r="L268">
+        <v>8</v>
+      </c>
+      <c r="M268">
+        <f t="shared" si="23"/>
+        <v>29</v>
+      </c>
+      <c r="N268">
+        <v>18</v>
+      </c>
+      <c r="O268">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>51</v>
       </c>
@@ -13173,8 +13644,37 @@
         <f t="shared" si="19"/>
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G269">
+        <v>4</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269" t="s">
+        <v>31</v>
+      </c>
+      <c r="K269">
+        <v>27</v>
+      </c>
+      <c r="L269">
+        <v>14</v>
+      </c>
+      <c r="M269">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="N269">
+        <v>11</v>
+      </c>
+      <c r="O269">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>35</v>
       </c>
@@ -13195,8 +13695,37 @@
         <f t="shared" si="19"/>
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G270">
+        <v>26</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270" t="s">
+        <v>31</v>
+      </c>
+      <c r="K270">
+        <v>27</v>
+      </c>
+      <c r="L270">
+        <v>22</v>
+      </c>
+      <c r="M270">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="N270">
+        <v>18</v>
+      </c>
+      <c r="O270">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -13217,8 +13746,37 @@
         <f t="shared" si="19"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G271">
+        <v>26</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271" t="s">
+        <v>31</v>
+      </c>
+      <c r="K271">
+        <v>35</v>
+      </c>
+      <c r="L271">
+        <v>7</v>
+      </c>
+      <c r="M271">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="N271">
+        <v>19</v>
+      </c>
+      <c r="O271">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>52</v>
       </c>
@@ -13239,6 +13797,35 @@
         <f t="shared" si="19"/>
         <v>0.77777777777777779</v>
       </c>
+      <c r="G272">
+        <v>13</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272" t="s">
+        <v>32</v>
+      </c>
+      <c r="K272">
+        <v>42</v>
+      </c>
+      <c r="L272">
+        <v>45</v>
+      </c>
+      <c r="M272">
+        <f t="shared" si="23"/>
+        <v>-3</v>
+      </c>
+      <c r="N272">
+        <v>25</v>
+      </c>
+      <c r="O272">
+        <f t="shared" si="22"/>
+        <v>-4</v>
+      </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
@@ -13261,6 +13848,35 @@
         <f t="shared" si="19"/>
         <v>0.88888888888888884</v>
       </c>
+      <c r="G273">
+        <v>26</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273" t="s">
+        <v>32</v>
+      </c>
+      <c r="K273">
+        <v>40</v>
+      </c>
+      <c r="L273">
+        <v>42</v>
+      </c>
+      <c r="M273">
+        <f t="shared" si="23"/>
+        <v>-2</v>
+      </c>
+      <c r="N273">
+        <v>26</v>
+      </c>
+      <c r="O273">
+        <f t="shared" si="22"/>
+        <v>-4</v>
+      </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
@@ -13283,6 +13899,35 @@
         <f t="shared" si="19"/>
         <v>0.66666666666666663</v>
       </c>
+      <c r="G274">
+        <v>9</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274" t="s">
+        <v>32</v>
+      </c>
+      <c r="K274">
+        <v>17</v>
+      </c>
+      <c r="L274">
+        <v>21</v>
+      </c>
+      <c r="M274">
+        <f t="shared" si="23"/>
+        <v>-4</v>
+      </c>
+      <c r="N274">
+        <v>26</v>
+      </c>
+      <c r="O274">
+        <f t="shared" si="22"/>
+        <v>-3</v>
+      </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
@@ -13305,6 +13950,35 @@
         <f t="shared" si="19"/>
         <v>0.88888888888888884</v>
       </c>
+      <c r="G275">
+        <v>26</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275" t="s">
+        <v>31</v>
+      </c>
+      <c r="K275">
+        <v>35</v>
+      </c>
+      <c r="L275">
+        <v>21</v>
+      </c>
+      <c r="M275">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="N275">
+        <v>22</v>
+      </c>
+      <c r="O275">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
@@ -13327,51 +14001,629 @@
         <f t="shared" si="19"/>
         <v>0.77777777777777779</v>
       </c>
+      <c r="G276">
+        <v>26</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276" t="s">
+        <v>31</v>
+      </c>
+      <c r="K276">
+        <v>30</v>
+      </c>
+      <c r="L276">
+        <v>23</v>
+      </c>
+      <c r="M276">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="N276">
+        <v>20</v>
+      </c>
+      <c r="O276">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>0</v>
-      </c>
-      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277">
+        <v>12</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>10</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>1</v>
+      </c>
+      <c r="B278">
+        <v>12</v>
+      </c>
+      <c r="C278">
+        <f>C277+1</f>
+        <v>2</v>
+      </c>
+      <c r="D278">
+        <v>9</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>8</v>
+      </c>
+      <c r="B279">
+        <v>12</v>
+      </c>
+      <c r="C279">
+        <f t="shared" ref="C279:C301" si="24">C278+1</f>
+        <v>3</v>
+      </c>
+      <c r="D279">
+        <v>10</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280">
+        <v>12</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D280">
+        <v>9</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281">
+        <v>12</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="D281">
+        <v>9</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>9</v>
+      </c>
+      <c r="B282">
+        <v>12</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="D282">
+        <v>9</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>47</v>
+      </c>
+      <c r="B283">
+        <v>12</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="D283">
+        <v>9</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>44</v>
+      </c>
+      <c r="B284">
+        <v>12</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="D284">
+        <v>9</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>50</v>
+      </c>
+      <c r="B285">
+        <v>12</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="D285">
+        <v>9</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>38</v>
+      </c>
+      <c r="B286">
+        <v>12</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="D286">
+        <v>8</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>51</v>
+      </c>
+      <c r="B287">
+        <v>12</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="D287">
+        <v>8</v>
+      </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+      <c r="F287">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>2</v>
+      </c>
+      <c r="B288">
+        <v>12</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="D288">
+        <v>9</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>53</v>
+      </c>
+      <c r="B289">
+        <v>12</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="24"/>
+        <v>13</v>
+      </c>
+      <c r="D289">
+        <v>9</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>43</v>
+      </c>
+      <c r="B290">
+        <v>12</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="D290">
+        <v>8</v>
+      </c>
+      <c r="E290">
+        <v>2</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>59</v>
+      </c>
+      <c r="B291">
+        <v>12</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="24"/>
+        <v>15</v>
+      </c>
+      <c r="D291">
+        <v>10</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>6</v>
+      </c>
+      <c r="B292">
+        <v>12</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="D292">
+        <v>7</v>
+      </c>
+      <c r="E292">
+        <v>3</v>
+      </c>
+      <c r="F292">
+        <f t="shared" si="19"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>61</v>
+      </c>
+      <c r="B293">
+        <v>12</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="D293">
+        <v>9</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>35</v>
+      </c>
+      <c r="B294">
+        <v>12</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="24"/>
+        <v>18</v>
+      </c>
+      <c r="D294">
+        <v>8</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>12</v>
+      </c>
+      <c r="B295">
+        <v>12</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="24"/>
+        <v>19</v>
+      </c>
+      <c r="D295">
+        <v>7</v>
+      </c>
+      <c r="E295">
+        <v>3</v>
+      </c>
+      <c r="F295">
+        <f t="shared" si="19"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>58</v>
+      </c>
+      <c r="B296">
+        <v>12</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="D296">
+        <v>8</v>
+      </c>
+      <c r="E296">
+        <v>2</v>
+      </c>
+      <c r="F296">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>42</v>
+      </c>
+      <c r="B297">
+        <v>12</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="D297">
+        <v>7</v>
+      </c>
+      <c r="E297">
+        <v>3</v>
+      </c>
+      <c r="F297">
+        <f t="shared" si="19"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>22</v>
+      </c>
+      <c r="B298">
+        <v>12</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="24"/>
+        <v>22</v>
+      </c>
+      <c r="D298">
+        <v>9</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>56</v>
+      </c>
+      <c r="B299">
+        <v>12</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="24"/>
+        <v>23</v>
+      </c>
+      <c r="D299">
+        <v>9</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>23</v>
+      </c>
+      <c r="B300">
+        <v>12</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="24"/>
+        <v>24</v>
+      </c>
+      <c r="D300">
+        <v>7</v>
+      </c>
+      <c r="E300">
+        <v>3</v>
+      </c>
+      <c r="F300">
+        <f t="shared" si="19"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>52</v>
+      </c>
+      <c r="B301">
+        <v>12</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="C277" t="s">
-        <v>26</v>
-      </c>
-      <c r="D277" t="s">
-        <v>31</v>
-      </c>
-      <c r="E277" t="s">
+      <c r="D301">
+        <v>7</v>
+      </c>
+      <c r="E301">
+        <v>3</v>
+      </c>
+      <c r="F301">
+        <f t="shared" si="19"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>0</v>
+      </c>
+      <c r="B302" t="s">
+        <v>25</v>
+      </c>
+      <c r="C302" t="s">
+        <v>26</v>
+      </c>
+      <c r="D302" t="s">
+        <v>31</v>
+      </c>
+      <c r="E302" t="s">
         <v>32</v>
       </c>
-      <c r="F277" t="s">
+      <c r="F302" t="s">
         <v>33</v>
       </c>
-      <c r="G277" t="s">
+      <c r="G302" t="s">
         <v>34</v>
       </c>
-      <c r="H277" t="s">
+      <c r="H302" t="s">
         <v>46</v>
       </c>
-      <c r="I277" t="s">
+      <c r="I302" t="s">
         <v>45</v>
       </c>
-      <c r="J277" t="s">
+      <c r="J302" t="s">
         <v>27</v>
       </c>
-      <c r="K277" t="s">
+      <c r="K302" t="s">
         <v>28</v>
       </c>
-      <c r="L277" t="s">
+      <c r="L302" t="s">
         <v>29</v>
       </c>
-      <c r="M277" t="s">
+      <c r="M302" t="s">
         <v>30</v>
       </c>
-      <c r="N277" t="s">
+      <c r="N302" t="s">
         <v>40</v>
       </c>
-      <c r="O277" t="s">
+      <c r="O302" t="s">
         <v>41</v>
       </c>
     </row>

--- a/tables/2021AP.xlsx
+++ b/tables/2021AP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eanma\Google Drive\Data Projects\top25\top25_project\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4CD508-9BA5-47A3-8C16-5F8891C4EA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4FE81B-202E-4C29-ADE5-C00B7F9EB92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="2110" windowWidth="22530" windowHeight="7450" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
+    <workbookView xWindow="6890" yWindow="550" windowWidth="22530" windowHeight="7450" xr2:uid="{6BD16A16-E195-4F8C-BD1A-E4B6BB240C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="62">
   <si>
     <t>Team</t>
   </si>
@@ -571,11 +571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48743F2A-DB94-4EE1-849C-517D3A883C44}">
-  <dimension ref="A1:O302"/>
+  <dimension ref="A1:O352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M262" sqref="M262"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G334" sqref="G334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11210,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <f t="shared" ref="F220:F301" si="19">D220/(D220+E220)</f>
+        <f t="shared" ref="F220:F351" si="19">D220/(D220+E220)</f>
         <v>1</v>
       </c>
       <c r="G220">
@@ -13182,7 +13182,7 @@
         <v>7</v>
       </c>
       <c r="O259">
-        <f t="shared" ref="O259:O276" si="22">C259-N259</f>
+        <f t="shared" ref="O259:O322" si="22">C259-N259</f>
         <v>1</v>
       </c>
     </row>
@@ -13510,7 +13510,7 @@
         <v>17</v>
       </c>
       <c r="M266">
-        <f t="shared" ref="M266:M276" si="23">K266-L266</f>
+        <f t="shared" ref="M266:M326" si="23">K266-L266</f>
         <v>10</v>
       </c>
       <c r="N266">
@@ -14051,6 +14051,35 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
+      <c r="G277">
+        <v>26</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277" t="s">
+        <v>31</v>
+      </c>
+      <c r="K277">
+        <v>56</v>
+      </c>
+      <c r="L277">
+        <v>7</v>
+      </c>
+      <c r="M277">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
@@ -14073,6 +14102,35 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
+      <c r="G278">
+        <v>21</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278" t="s">
+        <v>31</v>
+      </c>
+      <c r="K278">
+        <v>42</v>
+      </c>
+      <c r="L278">
+        <v>35</v>
+      </c>
+      <c r="M278">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="N278">
+        <v>3</v>
+      </c>
+      <c r="O278">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
@@ -14095,6 +14153,35 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
+      <c r="G279">
+        <v>26</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279" t="s">
+        <v>31</v>
+      </c>
+      <c r="K279">
+        <v>48</v>
+      </c>
+      <c r="L279">
+        <v>14</v>
+      </c>
+      <c r="M279">
+        <f t="shared" si="23"/>
+        <v>34</v>
+      </c>
+      <c r="N279">
+        <v>4</v>
+      </c>
+      <c r="O279">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
@@ -14117,6 +14204,35 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
+      <c r="G280">
+        <v>24</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280" t="s">
+        <v>32</v>
+      </c>
+      <c r="K280">
+        <v>7</v>
+      </c>
+      <c r="L280">
+        <v>38</v>
+      </c>
+      <c r="M280">
+        <f t="shared" si="23"/>
+        <v>-31</v>
+      </c>
+      <c r="N280">
+        <v>11</v>
+      </c>
+      <c r="O280">
+        <f t="shared" si="22"/>
+        <v>-7</v>
+      </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
@@ -14139,6 +14255,35 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
+      <c r="G281">
+        <v>7</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281" t="s">
+        <v>31</v>
+      </c>
+      <c r="K281">
+        <v>56</v>
+      </c>
+      <c r="L281">
+        <v>7</v>
+      </c>
+      <c r="M281">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
@@ -14161,6 +14306,35 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
+      <c r="G282">
+        <v>26</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282" t="s">
+        <v>31</v>
+      </c>
+      <c r="K282">
+        <v>55</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <f t="shared" si="23"/>
+        <v>55</v>
+      </c>
+      <c r="N282">
+        <v>5</v>
+      </c>
+      <c r="O282">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
@@ -14183,6 +14357,35 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
+      <c r="G283">
+        <v>5</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283" t="s">
+        <v>32</v>
+      </c>
+      <c r="K283">
+        <v>7</v>
+      </c>
+      <c r="L283">
+        <v>56</v>
+      </c>
+      <c r="M283">
+        <f t="shared" si="23"/>
+        <v>-49</v>
+      </c>
+      <c r="N283">
+        <v>12</v>
+      </c>
+      <c r="O283">
+        <f t="shared" si="22"/>
+        <v>-5</v>
+      </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
@@ -14205,6 +14408,35 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
+      <c r="G284">
+        <v>26</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284" t="s">
+        <v>31</v>
+      </c>
+      <c r="K284">
+        <v>59</v>
+      </c>
+      <c r="L284">
+        <v>18</v>
+      </c>
+      <c r="M284">
+        <f t="shared" si="23"/>
+        <v>41</v>
+      </c>
+      <c r="N284">
+        <v>6</v>
+      </c>
+      <c r="O284">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
@@ -14227,6 +14459,35 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
+      <c r="G285">
+        <v>26</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285" t="s">
+        <v>31</v>
+      </c>
+      <c r="K285">
+        <v>28</v>
+      </c>
+      <c r="L285">
+        <v>21</v>
+      </c>
+      <c r="M285">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="N285">
+        <v>10</v>
+      </c>
+      <c r="O285">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
@@ -14249,6 +14510,35 @@
         <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
+      <c r="G286">
+        <v>26</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286" t="s">
+        <v>31</v>
+      </c>
+      <c r="K286">
+        <v>31</v>
+      </c>
+      <c r="L286">
+        <v>17</v>
+      </c>
+      <c r="M286">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="N286">
+        <v>8</v>
+      </c>
+      <c r="O286">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
@@ -14271,6 +14561,35 @@
         <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
+      <c r="G287">
+        <v>26</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287" t="s">
+        <v>31</v>
+      </c>
+      <c r="K287">
+        <v>20</v>
+      </c>
+      <c r="L287">
+        <v>10</v>
+      </c>
+      <c r="M287">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="N287">
+        <v>9</v>
+      </c>
+      <c r="O287">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
@@ -14293,6 +14612,35 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
+      <c r="G288">
+        <v>26</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288" t="s">
+        <v>31</v>
+      </c>
+      <c r="K288">
+        <v>23</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <f t="shared" si="23"/>
+        <v>23</v>
+      </c>
+      <c r="N288">
+        <v>7</v>
+      </c>
+      <c r="O288">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
@@ -14315,6 +14663,35 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
+      <c r="G289">
+        <v>26</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289" t="s">
+        <v>32</v>
+      </c>
+      <c r="K289">
+        <v>27</v>
+      </c>
+      <c r="L289">
+        <v>48</v>
+      </c>
+      <c r="M289">
+        <f t="shared" si="23"/>
+        <v>-21</v>
+      </c>
+      <c r="N289">
+        <v>21</v>
+      </c>
+      <c r="O289">
+        <f t="shared" si="22"/>
+        <v>-8</v>
+      </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
@@ -14337,6 +14714,35 @@
         <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
+      <c r="G290">
+        <v>26</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290" t="s">
+        <v>31</v>
+      </c>
+      <c r="K290">
+        <v>34</v>
+      </c>
+      <c r="L290">
+        <v>17</v>
+      </c>
+      <c r="M290">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="N290">
+        <v>13</v>
+      </c>
+      <c r="O290">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
@@ -14359,6 +14765,35 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
+      <c r="G291">
+        <v>26</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291" t="s">
+        <v>31</v>
+      </c>
+      <c r="K291">
+        <v>34</v>
+      </c>
+      <c r="L291">
+        <v>31</v>
+      </c>
+      <c r="M291">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="N291">
+        <v>15</v>
+      </c>
+      <c r="O291">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
@@ -14381,6 +14816,35 @@
         <f t="shared" si="19"/>
         <v>0.7</v>
       </c>
+      <c r="G292">
+        <v>26</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292" t="s">
+        <v>31</v>
+      </c>
+      <c r="K292">
+        <v>52</v>
+      </c>
+      <c r="L292">
+        <v>3</v>
+      </c>
+      <c r="M292">
+        <f t="shared" si="23"/>
+        <v>49</v>
+      </c>
+      <c r="N292">
+        <v>14</v>
+      </c>
+      <c r="O292">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
@@ -14403,6 +14867,35 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
+      <c r="G293">
+        <v>26</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293" t="s">
+        <v>31</v>
+      </c>
+      <c r="K293">
+        <v>31</v>
+      </c>
+      <c r="L293">
+        <v>13</v>
+      </c>
+      <c r="M293">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="N293">
+        <v>19</v>
+      </c>
+      <c r="O293">
+        <f t="shared" si="22"/>
+        <v>-2</v>
+      </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
@@ -14425,6 +14918,35 @@
         <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
+      <c r="G294">
+        <v>26</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294" t="s">
+        <v>31</v>
+      </c>
+      <c r="K294">
+        <v>33</v>
+      </c>
+      <c r="L294">
+        <v>23</v>
+      </c>
+      <c r="M294">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="N294">
+        <v>17</v>
+      </c>
+      <c r="O294">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
@@ -14447,6 +14969,35 @@
         <f t="shared" si="19"/>
         <v>0.7</v>
       </c>
+      <c r="G295">
+        <v>26</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295" t="s">
+        <v>31</v>
+      </c>
+      <c r="K295">
+        <v>35</v>
+      </c>
+      <c r="L295">
+        <v>28</v>
+      </c>
+      <c r="M295">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="N295">
+        <v>18</v>
+      </c>
+      <c r="O295">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
@@ -14469,6 +15020,35 @@
         <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
+      <c r="G296">
+        <v>26</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296" t="s">
+        <v>31</v>
+      </c>
+      <c r="K296">
+        <v>48</v>
+      </c>
+      <c r="L296">
+        <v>38</v>
+      </c>
+      <c r="M296">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="N296">
+        <v>20</v>
+      </c>
+      <c r="O296">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
@@ -14491,6 +15071,35 @@
         <f t="shared" si="19"/>
         <v>0.7</v>
       </c>
+      <c r="G297">
+        <v>2</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297" t="s">
+        <v>32</v>
+      </c>
+      <c r="K297">
+        <v>35</v>
+      </c>
+      <c r="L297">
+        <v>42</v>
+      </c>
+      <c r="M297">
+        <f t="shared" si="23"/>
+        <v>-7</v>
+      </c>
+      <c r="N297">
+        <v>25</v>
+      </c>
+      <c r="O297">
+        <f t="shared" si="22"/>
+        <v>-4</v>
+      </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
@@ -14513,6 +15122,35 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
+      <c r="G298">
+        <v>26</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298" t="s">
+        <v>31</v>
+      </c>
+      <c r="K298">
+        <v>42</v>
+      </c>
+      <c r="L298">
+        <v>14</v>
+      </c>
+      <c r="M298">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="N298">
+        <v>23</v>
+      </c>
+      <c r="O298">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
@@ -14535,6 +15173,35 @@
         <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
+      <c r="G299">
+        <v>26</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299" t="s">
+        <v>31</v>
+      </c>
+      <c r="K299">
+        <v>28</v>
+      </c>
+      <c r="L299">
+        <v>20</v>
+      </c>
+      <c r="M299">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="N299">
+        <v>22</v>
+      </c>
+      <c r="O299">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
@@ -14557,6 +15224,35 @@
         <f t="shared" si="19"/>
         <v>0.7</v>
       </c>
+      <c r="G300">
+        <v>4</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300" t="s">
+        <v>31</v>
+      </c>
+      <c r="K300">
+        <v>38</v>
+      </c>
+      <c r="L300">
+        <v>7</v>
+      </c>
+      <c r="M300">
+        <f t="shared" si="23"/>
+        <v>31</v>
+      </c>
+      <c r="N300">
+        <v>16</v>
+      </c>
+      <c r="O300">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
@@ -14579,51 +15275,2047 @@
         <f t="shared" si="19"/>
         <v>0.7</v>
       </c>
+      <c r="G301">
+        <v>26</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301" t="s">
+        <v>31</v>
+      </c>
+      <c r="K301">
+        <v>41</v>
+      </c>
+      <c r="L301">
+        <v>17</v>
+      </c>
+      <c r="M301">
+        <f t="shared" si="23"/>
+        <v>24</v>
+      </c>
+      <c r="N301">
+        <v>24</v>
+      </c>
+      <c r="O301">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>0</v>
-      </c>
-      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302">
+        <v>13</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>11</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G302">
+        <v>26</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302" t="s">
+        <v>31</v>
+      </c>
+      <c r="K302">
+        <v>45</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <f t="shared" si="23"/>
+        <v>45</v>
+      </c>
+      <c r="N302">
+        <v>1</v>
+      </c>
+      <c r="O302">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B303">
+        <v>13</v>
+      </c>
+      <c r="C303">
+        <f>C302+1</f>
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <v>10</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
+      <c r="F303">
+        <f t="shared" si="19"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G303">
+        <v>6</v>
+      </c>
+      <c r="H303">
+        <v>1</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303" t="s">
+        <v>32</v>
+      </c>
+      <c r="K303">
+        <v>27</v>
+      </c>
+      <c r="L303">
+        <v>42</v>
+      </c>
+      <c r="M303">
+        <f t="shared" si="23"/>
+        <v>-15</v>
+      </c>
+      <c r="N303">
+        <v>7</v>
+      </c>
+      <c r="O303">
+        <f t="shared" si="22"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>1</v>
+      </c>
+      <c r="B304">
+        <v>13</v>
+      </c>
+      <c r="C304">
+        <f t="shared" ref="C304:C326" si="25">C303+1</f>
+        <v>3</v>
+      </c>
+      <c r="D304">
+        <v>10</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <f t="shared" si="19"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G304">
+        <v>26</v>
+      </c>
+      <c r="H304">
+        <v>1</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304" t="s">
+        <v>31</v>
+      </c>
+      <c r="K304">
+        <v>24</v>
+      </c>
+      <c r="L304">
+        <v>22</v>
+      </c>
+      <c r="M304">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="N304">
+        <v>4</v>
+      </c>
+      <c r="O304">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>8</v>
+      </c>
+      <c r="B305">
+        <v>13</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="D305">
+        <v>11</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>26</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305" t="s">
+        <v>31</v>
+      </c>
+      <c r="K305">
+        <v>35</v>
+      </c>
+      <c r="L305">
+        <v>14</v>
+      </c>
+      <c r="M305">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="N305">
+        <v>3</v>
+      </c>
+      <c r="O305">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>9</v>
+      </c>
+      <c r="B306">
+        <v>13</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="D306">
+        <v>10</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306">
+        <f t="shared" si="19"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G306">
+        <v>26</v>
+      </c>
+      <c r="H306">
+        <v>1</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306" t="s">
+        <v>31</v>
+      </c>
+      <c r="K306">
+        <v>45</v>
+      </c>
+      <c r="L306">
+        <v>14</v>
+      </c>
+      <c r="M306">
+        <f t="shared" si="23"/>
+        <v>31</v>
+      </c>
+      <c r="N306">
+        <v>6</v>
+      </c>
+      <c r="O306">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>44</v>
+      </c>
+      <c r="B307">
+        <v>13</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="D307">
+        <v>10</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+      <c r="F307">
+        <f t="shared" si="19"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G307">
+        <v>2</v>
+      </c>
+      <c r="H307">
+        <v>1</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307" t="s">
+        <v>31</v>
+      </c>
+      <c r="K307">
+        <v>42</v>
+      </c>
+      <c r="L307">
+        <v>27</v>
+      </c>
+      <c r="M307">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="N307">
+        <v>2</v>
+      </c>
+      <c r="O307">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>50</v>
+      </c>
+      <c r="B308">
+        <v>13</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="D308">
+        <v>10</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308">
+        <f t="shared" si="19"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G308">
+        <v>10</v>
+      </c>
+      <c r="H308">
+        <v>1</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+      <c r="J308" t="s">
+        <v>31</v>
+      </c>
+      <c r="K308">
+        <v>37</v>
+      </c>
+      <c r="L308">
+        <v>33</v>
+      </c>
+      <c r="M308">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="N308">
+        <v>5</v>
+      </c>
+      <c r="O308">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>38</v>
+      </c>
+      <c r="B309">
+        <v>13</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="D309">
+        <v>9</v>
+      </c>
+      <c r="E309">
+        <v>2</v>
+      </c>
+      <c r="F309">
+        <f t="shared" si="19"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G309">
+        <v>26</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309" t="s">
+        <v>31</v>
+      </c>
+      <c r="K309">
+        <v>31</v>
+      </c>
+      <c r="L309">
+        <v>21</v>
+      </c>
+      <c r="M309">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="N309">
+        <v>8</v>
+      </c>
+      <c r="O309">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>51</v>
+      </c>
+      <c r="B310">
+        <v>13</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="D310">
+        <v>9</v>
+      </c>
+      <c r="E310">
+        <v>2</v>
+      </c>
+      <c r="F310">
+        <f t="shared" si="19"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G310">
+        <v>26</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310" t="s">
+        <v>31</v>
+      </c>
+      <c r="K310">
+        <v>27</v>
+      </c>
+      <c r="L310">
+        <v>24</v>
+      </c>
+      <c r="M310">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="N310">
+        <v>9</v>
+      </c>
+      <c r="O310">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>2</v>
+      </c>
+      <c r="B311">
+        <v>13</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="D311">
+        <v>10</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311">
+        <f t="shared" si="19"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G311">
+        <v>7</v>
+      </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311" t="s">
+        <v>32</v>
+      </c>
+      <c r="K311">
+        <v>33</v>
+      </c>
+      <c r="L311">
+        <v>37</v>
+      </c>
+      <c r="M311">
+        <f t="shared" si="23"/>
+        <v>-4</v>
+      </c>
+      <c r="N311">
+        <v>5</v>
+      </c>
+      <c r="O311">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>11</v>
+      </c>
+      <c r="B312">
+        <v>13</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="D312">
+        <v>9</v>
+      </c>
+      <c r="E312">
+        <v>2</v>
+      </c>
+      <c r="F312">
+        <f t="shared" si="19"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G312">
+        <v>26</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312" t="s">
+        <v>31</v>
+      </c>
+      <c r="K312">
+        <v>38</v>
+      </c>
+      <c r="L312">
+        <v>29</v>
+      </c>
+      <c r="M312">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="N312">
+        <v>10</v>
+      </c>
+      <c r="O312">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>47</v>
+      </c>
+      <c r="B313">
+        <v>13</v>
+      </c>
+      <c r="C313">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="D313">
+        <v>9</v>
+      </c>
+      <c r="E313">
+        <v>2</v>
+      </c>
+      <c r="F313">
+        <f t="shared" si="19"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G313">
+        <v>26</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313" t="s">
+        <v>31</v>
+      </c>
+      <c r="K313">
+        <v>30</v>
+      </c>
+      <c r="L313">
+        <v>27</v>
+      </c>
+      <c r="M313">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="N313">
+        <v>11</v>
+      </c>
+      <c r="O313">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>43</v>
+      </c>
+      <c r="B314">
+        <v>13</v>
+      </c>
+      <c r="C314">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="D314">
+        <v>9</v>
+      </c>
+      <c r="E314">
+        <v>2</v>
+      </c>
+      <c r="F314">
+        <f t="shared" si="19"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G314">
+        <v>26</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314" t="s">
+        <v>31</v>
+      </c>
+      <c r="K314">
+        <v>35</v>
+      </c>
+      <c r="L314">
+        <v>31</v>
+      </c>
+      <c r="M314">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="N314">
+        <v>12</v>
+      </c>
+      <c r="O314">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>6</v>
+      </c>
+      <c r="B315">
+        <v>13</v>
+      </c>
+      <c r="C315">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="D315">
+        <v>8</v>
+      </c>
+      <c r="E315">
+        <v>3</v>
+      </c>
+      <c r="F315">
+        <f t="shared" si="19"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G315">
+        <v>26</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315" t="s">
+        <v>32</v>
+      </c>
+      <c r="K315">
+        <v>24</v>
+      </c>
+      <c r="L315">
+        <v>27</v>
+      </c>
+      <c r="M315">
+        <f t="shared" si="23"/>
+        <v>-3</v>
+      </c>
+      <c r="N315">
+        <v>24</v>
+      </c>
+      <c r="O315">
+        <f t="shared" si="22"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>59</v>
+      </c>
+      <c r="B316">
+        <v>13</v>
+      </c>
+      <c r="C316">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="D316">
+        <v>11</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>26</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316" t="s">
+        <v>32</v>
+      </c>
+      <c r="K316">
+        <v>23</v>
+      </c>
+      <c r="L316">
+        <v>45</v>
+      </c>
+      <c r="M316">
+        <f t="shared" si="23"/>
+        <v>-22</v>
+      </c>
+      <c r="N316">
+        <v>26</v>
+      </c>
+      <c r="O316">
+        <f t="shared" si="22"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>23</v>
+      </c>
+      <c r="B317">
+        <v>13</v>
+      </c>
+      <c r="C317">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="D317">
+        <v>8</v>
+      </c>
+      <c r="E317">
+        <v>3</v>
+      </c>
+      <c r="F317">
+        <f t="shared" si="19"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G317">
+        <v>26</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+      <c r="I317">
+        <v>1</v>
+      </c>
+      <c r="J317" t="s">
+        <v>31</v>
+      </c>
+      <c r="K317">
+        <v>28</v>
+      </c>
+      <c r="L317">
+        <v>13</v>
+      </c>
+      <c r="M317">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="N317">
+        <v>14</v>
+      </c>
+      <c r="O317">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>35</v>
+      </c>
+      <c r="B318">
+        <v>13</v>
+      </c>
+      <c r="C318">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="D318">
+        <v>9</v>
+      </c>
+      <c r="E318">
+        <v>2</v>
+      </c>
+      <c r="F318">
+        <f t="shared" si="19"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G318">
+        <v>26</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318" t="s">
+        <v>31</v>
+      </c>
+      <c r="K318">
+        <v>28</v>
+      </c>
+      <c r="L318">
+        <v>21</v>
+      </c>
+      <c r="M318">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="N318">
+        <v>15</v>
+      </c>
+      <c r="O318">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>12</v>
+      </c>
+      <c r="B319">
+        <v>13</v>
+      </c>
+      <c r="C319">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="D319">
+        <v>8</v>
+      </c>
+      <c r="E319">
+        <v>3</v>
+      </c>
+      <c r="F319">
+        <f t="shared" si="19"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G319">
+        <v>26</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319" t="s">
+        <v>32</v>
+      </c>
+      <c r="K319">
+        <v>13</v>
+      </c>
+      <c r="L319">
+        <v>23</v>
+      </c>
+      <c r="M319">
+        <f t="shared" si="23"/>
+        <v>-10</v>
+      </c>
+      <c r="N319">
+        <v>26</v>
+      </c>
+      <c r="O319">
+        <f t="shared" si="22"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>61</v>
+      </c>
+      <c r="B320">
+        <v>13</v>
+      </c>
+      <c r="C320">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="D320">
+        <v>10</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320">
+        <f t="shared" si="19"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G320">
+        <v>26</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320" t="s">
+        <v>31</v>
+      </c>
+      <c r="K320">
+        <v>45</v>
+      </c>
+      <c r="L320">
+        <v>17</v>
+      </c>
+      <c r="M320">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="N320">
+        <v>16</v>
+      </c>
+      <c r="O320">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>58</v>
+      </c>
+      <c r="B321">
+        <v>13</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="D321">
+        <v>9</v>
+      </c>
+      <c r="E321">
+        <v>2</v>
+      </c>
+      <c r="F321">
+        <f t="shared" si="19"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G321">
+        <v>26</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321" t="s">
+        <v>31</v>
+      </c>
+      <c r="K321">
+        <v>31</v>
+      </c>
+      <c r="L321">
+        <v>14</v>
+      </c>
+      <c r="M321">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="N321">
+        <v>17</v>
+      </c>
+      <c r="O321">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>53</v>
+      </c>
+      <c r="B322">
+        <v>13</v>
+      </c>
+      <c r="C322">
+        <f t="shared" si="25"/>
+        <v>21</v>
+      </c>
+      <c r="D322">
+        <v>9</v>
+      </c>
+      <c r="E322">
+        <v>2</v>
+      </c>
+      <c r="F322">
+        <f t="shared" si="19"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G322">
+        <v>26</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322" t="s">
+        <v>31</v>
+      </c>
+      <c r="K322">
+        <v>41</v>
+      </c>
+      <c r="L322">
+        <v>10</v>
+      </c>
+      <c r="M322">
+        <f t="shared" si="23"/>
+        <v>31</v>
+      </c>
+      <c r="N322">
+        <v>18</v>
+      </c>
+      <c r="O322">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>56</v>
+      </c>
+      <c r="B323">
+        <v>13</v>
+      </c>
+      <c r="C323">
+        <f t="shared" si="25"/>
+        <v>22</v>
+      </c>
+      <c r="D323">
+        <v>10</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323">
+        <f t="shared" si="19"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G323">
+        <v>26</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323" t="s">
+        <v>31</v>
+      </c>
+      <c r="K323">
+        <v>27</v>
+      </c>
+      <c r="L323">
+        <v>16</v>
+      </c>
+      <c r="M323">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="N323">
+        <v>19</v>
+      </c>
+      <c r="O323">
+        <f t="shared" ref="O323:O326" si="26">C323-N323</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>22</v>
+      </c>
+      <c r="B324">
+        <v>13</v>
+      </c>
+      <c r="C324">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="D324">
+        <v>10</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="F324">
+        <f t="shared" si="19"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G324">
+        <v>26</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324" t="s">
+        <v>31</v>
+      </c>
+      <c r="K324">
+        <v>21</v>
+      </c>
+      <c r="L324">
+        <v>16</v>
+      </c>
+      <c r="M324">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="N324">
+        <v>20</v>
+      </c>
+      <c r="O324">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>52</v>
+      </c>
+      <c r="B325">
+        <v>13</v>
+      </c>
+      <c r="C325">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="D325">
+        <v>8</v>
+      </c>
+      <c r="E325">
+        <v>3</v>
+      </c>
+      <c r="F325">
+        <f t="shared" si="19"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G325">
+        <v>26</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+      <c r="J325" t="s">
+        <v>31</v>
+      </c>
+      <c r="K325">
+        <v>34</v>
+      </c>
+      <c r="L325">
+        <v>30</v>
+      </c>
+      <c r="M325">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="N325">
+        <v>21</v>
+      </c>
+      <c r="O325">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>42</v>
+      </c>
+      <c r="B326">
+        <v>13</v>
+      </c>
+      <c r="C326">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="C302" t="s">
-        <v>26</v>
-      </c>
-      <c r="D302" t="s">
-        <v>31</v>
-      </c>
-      <c r="E302" t="s">
+      <c r="D326">
+        <v>7</v>
+      </c>
+      <c r="E326">
+        <v>4</v>
+      </c>
+      <c r="F326">
+        <f t="shared" si="19"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="G326">
+        <v>26</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326" t="s">
+        <v>31</v>
+      </c>
+      <c r="K326">
+        <v>34</v>
+      </c>
+      <c r="L326">
+        <v>17</v>
+      </c>
+      <c r="M326">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="N326">
+        <v>23</v>
+      </c>
+      <c r="O326">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327">
+        <v>14</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>12</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G327">
+        <v>4</v>
+      </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>44</v>
+      </c>
+      <c r="B328">
+        <v>14</v>
+      </c>
+      <c r="C328">
+        <f>C327+1</f>
+        <v>2</v>
+      </c>
+      <c r="D328">
+        <v>11</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <f t="shared" si="19"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G328">
+        <v>15</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>8</v>
+      </c>
+      <c r="B329">
+        <v>14</v>
+      </c>
+      <c r="C329">
+        <f t="shared" ref="C329:C351" si="27">C328+1</f>
+        <v>3</v>
+      </c>
+      <c r="D329">
+        <v>12</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G329">
+        <v>16</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>1</v>
+      </c>
+      <c r="B330">
+        <v>14</v>
+      </c>
+      <c r="C330">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="D330">
+        <v>11</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <f t="shared" si="19"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>50</v>
+      </c>
+      <c r="B331">
+        <v>14</v>
+      </c>
+      <c r="C331">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="D331">
+        <v>11</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+      <c r="F331">
+        <f t="shared" si="19"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G331">
+        <v>9</v>
+      </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332">
+        <v>14</v>
+      </c>
+      <c r="C332">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="D332">
+        <v>11</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <f t="shared" si="19"/>
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B333">
+        <v>14</v>
+      </c>
+      <c r="C333">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="D333">
+        <v>10</v>
+      </c>
+      <c r="E333">
+        <v>2</v>
+      </c>
+      <c r="F333">
+        <f t="shared" si="19"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>38</v>
+      </c>
+      <c r="B334">
+        <v>14</v>
+      </c>
+      <c r="C334">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="D334">
+        <v>10</v>
+      </c>
+      <c r="E334">
+        <v>2</v>
+      </c>
+      <c r="F334">
+        <f t="shared" si="19"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>51</v>
+      </c>
+      <c r="B335">
+        <v>14</v>
+      </c>
+      <c r="C335">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="D335">
+        <v>10</v>
+      </c>
+      <c r="E335">
+        <v>2</v>
+      </c>
+      <c r="F335">
+        <f t="shared" si="19"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G335">
+        <v>5</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>11</v>
+      </c>
+      <c r="B336">
+        <v>14</v>
+      </c>
+      <c r="C336">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="D336">
+        <v>10</v>
+      </c>
+      <c r="E336">
+        <v>2</v>
+      </c>
+      <c r="F336">
+        <f t="shared" si="19"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G336">
+        <v>14</v>
+      </c>
+      <c r="H336">
+        <v>1</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336" t="s">
         <v>32</v>
       </c>
-      <c r="F302" t="s">
+      <c r="K336">
+        <v>10</v>
+      </c>
+      <c r="L336">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>47</v>
+      </c>
+      <c r="B337">
+        <v>14</v>
+      </c>
+      <c r="C337">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="D337">
+        <v>10</v>
+      </c>
+      <c r="E337">
+        <v>2</v>
+      </c>
+      <c r="F337">
+        <f t="shared" si="19"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>43</v>
+      </c>
+      <c r="B338">
+        <v>14</v>
+      </c>
+      <c r="C338">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="D338">
+        <v>10</v>
+      </c>
+      <c r="E338">
+        <v>2</v>
+      </c>
+      <c r="F338">
+        <f t="shared" si="19"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>2</v>
+      </c>
+      <c r="B339">
+        <v>14</v>
+      </c>
+      <c r="C339">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="D339">
+        <v>10</v>
+      </c>
+      <c r="E339">
+        <v>2</v>
+      </c>
+      <c r="F339">
+        <f t="shared" si="19"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>23</v>
+      </c>
+      <c r="B340">
+        <v>14</v>
+      </c>
+      <c r="C340">
+        <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
+      <c r="D340">
+        <v>9</v>
+      </c>
+      <c r="E340">
+        <v>3</v>
+      </c>
+      <c r="F340">
+        <f t="shared" si="19"/>
+        <v>0.75</v>
+      </c>
+      <c r="G340">
+        <v>10</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340" t="s">
+        <v>31</v>
+      </c>
+      <c r="K340">
+        <v>38</v>
+      </c>
+      <c r="L340">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>35</v>
+      </c>
+      <c r="B341">
+        <v>14</v>
+      </c>
+      <c r="C341">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="D341">
+        <v>10</v>
+      </c>
+      <c r="E341">
+        <v>2</v>
+      </c>
+      <c r="F341">
+        <f t="shared" si="19"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G341">
+        <v>2</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>61</v>
+      </c>
+      <c r="B342">
+        <v>14</v>
+      </c>
+      <c r="C342">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="D342">
+        <v>11</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <f t="shared" si="19"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G342">
+        <v>3</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>58</v>
+      </c>
+      <c r="B343">
+        <v>14</v>
+      </c>
+      <c r="C343">
+        <f t="shared" si="27"/>
+        <v>17</v>
+      </c>
+      <c r="D343">
+        <v>10</v>
+      </c>
+      <c r="E343">
+        <v>2</v>
+      </c>
+      <c r="F343">
+        <f t="shared" si="19"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G343">
+        <v>18</v>
+      </c>
+      <c r="H343">
+        <v>1</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>53</v>
+      </c>
+      <c r="B344">
+        <v>14</v>
+      </c>
+      <c r="C344">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="D344">
+        <v>10</v>
+      </c>
+      <c r="E344">
+        <v>2</v>
+      </c>
+      <c r="F344">
+        <f t="shared" si="19"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G344">
+        <v>17</v>
+      </c>
+      <c r="H344">
+        <v>1</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>56</v>
+      </c>
+      <c r="B345">
+        <v>14</v>
+      </c>
+      <c r="C345">
+        <f t="shared" si="27"/>
+        <v>19</v>
+      </c>
+      <c r="D345">
+        <v>11</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <f t="shared" si="19"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G345">
+        <v>26</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>22</v>
+      </c>
+      <c r="B346">
+        <v>14</v>
+      </c>
+      <c r="C346">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="D346">
+        <v>11</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <f t="shared" si="19"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G346">
+        <v>26</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>52</v>
+      </c>
+      <c r="B347">
+        <v>14</v>
+      </c>
+      <c r="C347">
+        <f t="shared" si="27"/>
+        <v>21</v>
+      </c>
+      <c r="D347">
+        <v>9</v>
+      </c>
+      <c r="E347">
+        <v>3</v>
+      </c>
+      <c r="F347">
+        <f t="shared" si="19"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>3</v>
+      </c>
+      <c r="B348">
+        <v>14</v>
+      </c>
+      <c r="C348">
+        <f t="shared" si="27"/>
+        <v>22</v>
+      </c>
+      <c r="D348">
+        <v>9</v>
+      </c>
+      <c r="E348">
+        <v>3</v>
+      </c>
+      <c r="F348">
+        <f t="shared" si="19"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>42</v>
+      </c>
+      <c r="B349">
+        <v>14</v>
+      </c>
+      <c r="C349">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="D349">
+        <v>8</v>
+      </c>
+      <c r="E349">
+        <v>4</v>
+      </c>
+      <c r="F349">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>6</v>
+      </c>
+      <c r="B350">
+        <v>14</v>
+      </c>
+      <c r="C350">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="D350">
+        <v>8</v>
+      </c>
+      <c r="E350">
+        <v>4</v>
+      </c>
+      <c r="F350">
+        <f t="shared" si="19"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>54</v>
+      </c>
+      <c r="B351">
+        <v>14</v>
+      </c>
+      <c r="C351">
+        <f t="shared" si="27"/>
+        <v>25</v>
+      </c>
+      <c r="D351">
+        <v>9</v>
+      </c>
+      <c r="E351">
+        <v>3</v>
+      </c>
+      <c r="F351">
+        <f t="shared" si="19"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>0</v>
+      </c>
+      <c r="B352" t="s">
+        <v>25</v>
+      </c>
+      <c r="C352" t="s">
+        <v>26</v>
+      </c>
+      <c r="D352" t="s">
+        <v>31</v>
+      </c>
+      <c r="E352" t="s">
+        <v>32</v>
+      </c>
+      <c r="F352" t="s">
         <v>33</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G352" t="s">
         <v>34</v>
       </c>
-      <c r="H302" t="s">
+      <c r="H352" t="s">
         <v>46</v>
       </c>
-      <c r="I302" t="s">
+      <c r="I352" t="s">
         <v>45</v>
       </c>
-      <c r="J302" t="s">
+      <c r="J352" t="s">
         <v>27</v>
       </c>
-      <c r="K302" t="s">
+      <c r="K352" t="s">
         <v>28</v>
       </c>
-      <c r="L302" t="s">
+      <c r="L352" t="s">
         <v>29</v>
       </c>
-      <c r="M302" t="s">
+      <c r="M352" t="s">
         <v>30</v>
       </c>
-      <c r="N302" t="s">
+      <c r="N352" t="s">
         <v>40</v>
       </c>
-      <c r="O302" t="s">
+      <c r="O352" t="s">
         <v>41</v>
       </c>
     </row>
